--- a/Codigos/TRM.xlsx
+++ b/Codigos/TRM.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmartinez/Google Drive/ULasalle/2020-I/Riesgos/Github/Riesgos/Codigos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B71FF9CF-3036-DD41-8AEA-EDA39515EF90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E33AFF8-25D5-524C-9478-9D7DA3C30A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{915DEED5-E842-9948-BDE8-4EACF6E4994E}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="27840" windowHeight="16560" xr2:uid="{915DEED5-E842-9948-BDE8-4EACF6E4994E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$C$666</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E603C064-A9DF-114E-A6B0-9F47CB690CC8}">
-  <dimension ref="A1:F436"/>
+  <dimension ref="A1:F733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A436" sqref="A2:A436"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,4354 +477,7022 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43442</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3153.29</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="3">
+        <v>43375</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2993.74</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>43445</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3176.12</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="1">
+        <v>43376</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3005.5</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43446</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3184.7</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="3">
+        <v>43377</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3012.65</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>43447</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3169.36</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="1">
+        <v>43378</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3028.16</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43448</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3178.4</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="3">
+        <v>43379</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3031.31</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>43449</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3196.3</v>
+      <c r="A7" s="1">
+        <v>43380</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3031.31</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>43452</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3188.66</v>
+      <c r="A8" s="3">
+        <v>43381</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3031.31</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>43453</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3198.45</v>
+      <c r="A9" s="1">
+        <v>43382</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3031.31</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>43454</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3216.55</v>
+      <c r="A10" s="3">
+        <v>43383</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3057.55</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>43455</v>
-      </c>
-      <c r="B11" s="4">
-        <v>3246.86</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="1">
+        <v>43384</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3090.3</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43456</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3285.34</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="3">
+        <v>43385</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3087.34</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>43459</v>
-      </c>
-      <c r="B13" s="4">
-        <v>3285.51</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="1">
+        <v>43386</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3088.78</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>43461</v>
+        <v>43387</v>
       </c>
       <c r="B14" s="4">
-        <v>3289.69</v>
+        <v>3088.78</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43462</v>
+        <v>43388</v>
       </c>
       <c r="B15" s="2">
-        <v>3275.01</v>
+        <v>3088.78</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>43463</v>
+        <v>43389</v>
       </c>
       <c r="B16" s="4">
-        <v>3249.75</v>
+        <v>3088.78</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43468</v>
+        <v>43390</v>
       </c>
       <c r="B17" s="2">
-        <v>3250.01</v>
+        <v>3055.93</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>43469</v>
+        <v>43391</v>
       </c>
       <c r="B18" s="4">
-        <v>3241.2</v>
+        <v>3056.37</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43470</v>
+        <v>43392</v>
       </c>
       <c r="B19" s="2">
-        <v>3208.56</v>
+        <v>3088.47</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>43474</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3164.75</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="3">
+        <v>43393</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3079.88</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>43475</v>
-      </c>
-      <c r="B21" s="4">
-        <v>3128.07</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="1">
+        <v>43394</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3079.88</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>43476</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3136.49</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
+      <c r="A22" s="3">
+        <v>43395</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3079.88</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>43477</v>
-      </c>
-      <c r="B23" s="4">
-        <v>3151.49</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="1">
+        <v>43396</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3087.58</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>43480</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3143.22</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
+      <c r="A24" s="3">
+        <v>43397</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3110.2</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>43481</v>
-      </c>
-      <c r="B25" s="4">
-        <v>3137.66</v>
+      <c r="A25" s="1">
+        <v>43398</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3149.7</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43482</v>
-      </c>
-      <c r="B26" s="2">
-        <v>3124.96</v>
+      <c r="A26" s="3">
+        <v>43399</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3167.18</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>43483</v>
-      </c>
-      <c r="B27" s="4">
-        <v>3140.19</v>
+      <c r="A27" s="1">
+        <v>43400</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3185.26</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>43484</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3120.56</v>
+      <c r="A28" s="3">
+        <v>43401</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3185.26</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43488</v>
+        <v>43402</v>
       </c>
       <c r="B29" s="2">
-        <v>3136.59</v>
+        <v>3185.26</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>43489</v>
+        <v>43403</v>
       </c>
       <c r="B30" s="4">
-        <v>3146.14</v>
+        <v>3188.69</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43490</v>
+        <v>43404</v>
       </c>
       <c r="B31" s="2">
-        <v>3160.52</v>
+        <v>3202.44</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>43491</v>
+        <v>43405</v>
       </c>
       <c r="B32" s="4">
-        <v>3150.58</v>
+        <v>3219.85</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43494</v>
+        <v>43406</v>
       </c>
       <c r="B33" s="2">
-        <v>3167.86</v>
+        <v>3193.8</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>43495</v>
+        <v>43407</v>
       </c>
       <c r="B34" s="4">
-        <v>3157.52</v>
+        <v>3177.57</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43496</v>
+        <v>43408</v>
       </c>
       <c r="B35" s="2">
-        <v>3163.46</v>
+        <v>3177.57</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>43497</v>
+        <v>43409</v>
       </c>
       <c r="B36" s="4">
-        <v>3115.7</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
+        <v>3177.57</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43498</v>
+        <v>43410</v>
       </c>
       <c r="B37" s="2">
-        <v>3102.61</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
+        <v>3177.57</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>43501</v>
+        <v>43411</v>
       </c>
       <c r="B38" s="4">
-        <v>3089.4</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
+        <v>3154.55</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43502</v>
+        <v>43412</v>
       </c>
       <c r="B39" s="2">
-        <v>3094.05</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
+        <v>3140.25</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>43503</v>
+        <v>43413</v>
       </c>
       <c r="B40" s="4">
-        <v>3108.54</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
+        <v>3145.39</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43504</v>
+        <v>43414</v>
       </c>
       <c r="B41" s="2">
-        <v>3110.46</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="2"/>
+        <v>3176.89</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>43505</v>
+        <v>43415</v>
       </c>
       <c r="B42" s="4">
-        <v>3115.94</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
+        <v>3176.89</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43508</v>
+        <v>43416</v>
       </c>
       <c r="B43" s="2">
-        <v>3132.61</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="2"/>
+        <v>3176.89</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>43509</v>
+        <v>43417</v>
       </c>
       <c r="B44" s="4">
-        <v>3131.1</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="4"/>
+        <v>3176.89</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B45" s="2">
-        <v>3135.56</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="2"/>
+        <v>3197.2</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>43511</v>
+        <v>43419</v>
       </c>
       <c r="B46" s="4">
-        <v>3155.27</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
+        <v>3194.7</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43512</v>
+        <v>43420</v>
       </c>
       <c r="B47" s="2">
-        <v>3141.4</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="2"/>
+        <v>3198.29</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>43516</v>
-      </c>
-      <c r="B48" s="2">
-        <v>3118.36</v>
+      <c r="A48" s="3">
+        <v>43421</v>
+      </c>
+      <c r="B48" s="4">
+        <v>3173.59</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>43517</v>
-      </c>
-      <c r="B49" s="4">
-        <v>3112.18</v>
+      <c r="A49" s="1">
+        <v>43422</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3173.59</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>43518</v>
-      </c>
-      <c r="B50" s="2">
-        <v>3119.42</v>
+      <c r="A50" s="3">
+        <v>43423</v>
+      </c>
+      <c r="B50" s="4">
+        <v>3173.59</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>43519</v>
-      </c>
-      <c r="B51" s="4">
-        <v>3110.29</v>
+      <c r="A51" s="1">
+        <v>43424</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3178.81</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>43522</v>
-      </c>
-      <c r="B52" s="2">
-        <v>3101.41</v>
+      <c r="A52" s="3">
+        <v>43425</v>
+      </c>
+      <c r="B52" s="4">
+        <v>3189.51</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>43523</v>
-      </c>
-      <c r="B53" s="4">
-        <v>3095.29</v>
+      <c r="A53" s="1">
+        <v>43426</v>
+      </c>
+      <c r="B53" s="2">
+        <v>3196.26</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>43524</v>
-      </c>
-      <c r="B54" s="2">
-        <v>3072.01</v>
+      <c r="A54" s="3">
+        <v>43427</v>
+      </c>
+      <c r="B54" s="4">
+        <v>3196.26</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>43525</v>
-      </c>
-      <c r="B55" s="4">
-        <v>3077.35</v>
+      <c r="A55" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3223.95</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>43526</v>
-      </c>
-      <c r="B56" s="2">
-        <v>3091.49</v>
+      <c r="A56" s="3">
+        <v>43429</v>
+      </c>
+      <c r="B56" s="4">
+        <v>3223.95</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>43529</v>
-      </c>
-      <c r="B57" s="4">
-        <v>3093.79</v>
+      <c r="A57" s="1">
+        <v>43430</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3223.95</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>43530</v>
-      </c>
-      <c r="B58" s="2">
-        <v>3099.12</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="2"/>
+      <c r="A58" s="3">
+        <v>43431</v>
+      </c>
+      <c r="B58" s="4">
+        <v>3240.65</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>43531</v>
-      </c>
-      <c r="B59" s="4">
-        <v>3106.16</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
+      <c r="A59" s="1">
+        <v>43432</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3250.56</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>43532</v>
-      </c>
-      <c r="B60" s="2">
-        <v>3120.04</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="2"/>
+      <c r="A60" s="3">
+        <v>43433</v>
+      </c>
+      <c r="B60" s="4">
+        <v>3274.47</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>43533</v>
-      </c>
-      <c r="B61" s="4">
-        <v>3162.4</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="4"/>
+      <c r="A61" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3240.02</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>43536</v>
-      </c>
-      <c r="B62" s="2">
-        <v>3168.35</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="2"/>
+      <c r="A62" s="3">
+        <v>43435</v>
+      </c>
+      <c r="B62" s="4">
+        <v>3235.27</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>43537</v>
-      </c>
-      <c r="B63" s="4">
-        <v>3153.2</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
+      <c r="A63" s="1">
+        <v>43436</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3235.27</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>43538</v>
-      </c>
-      <c r="B64" s="2">
-        <v>3145.53</v>
+      <c r="A64" s="3">
+        <v>43437</v>
+      </c>
+      <c r="B64" s="4">
+        <v>3235.27</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>43539</v>
-      </c>
-      <c r="B65" s="4">
-        <v>3144.42</v>
+      <c r="A65" s="1">
+        <v>43438</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3196.15</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>43540</v>
-      </c>
-      <c r="B66" s="2">
-        <v>3123.28</v>
+      <c r="A66" s="3">
+        <v>43439</v>
+      </c>
+      <c r="B66" s="4">
+        <v>3174.11</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>43543</v>
-      </c>
-      <c r="B67" s="4">
-        <v>3102.25</v>
+      <c r="A67" s="1">
+        <v>43440</v>
+      </c>
+      <c r="B67" s="2">
+        <v>3162.29</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>43544</v>
-      </c>
-      <c r="B68" s="2">
-        <v>3095.39</v>
+      <c r="A68" s="3">
+        <v>43441</v>
+      </c>
+      <c r="B68" s="4">
+        <v>3187.86</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>43545</v>
-      </c>
-      <c r="B69" s="4">
-        <v>3092.39</v>
+      <c r="A69" s="1">
+        <v>43442</v>
+      </c>
+      <c r="B69" s="2">
+        <v>3153.29</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>43546</v>
-      </c>
-      <c r="B70" s="2">
-        <v>3082.45</v>
+      <c r="A70" s="3">
+        <v>43443</v>
+      </c>
+      <c r="B70" s="4">
+        <v>3153.29</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <v>43547</v>
-      </c>
-      <c r="B71" s="4">
-        <v>3126.19</v>
+      <c r="A71" s="1">
+        <v>43444</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3153.29</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>43551</v>
+        <v>43445</v>
       </c>
       <c r="B72" s="4">
-        <v>3145.55</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
+        <v>3176.12</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43552</v>
+        <v>43446</v>
       </c>
       <c r="B73" s="2">
-        <v>3186.43</v>
+        <v>3184.7</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>43553</v>
+        <v>43447</v>
       </c>
       <c r="B74" s="4">
-        <v>3190.94</v>
+        <v>3169.36</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43554</v>
+        <v>43448</v>
       </c>
       <c r="B75" s="2">
-        <v>3174.79</v>
+        <v>3178.4</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>43557</v>
+        <v>43449</v>
       </c>
       <c r="B76" s="4">
-        <v>3146.81</v>
+        <v>3196.3</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="4"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43558</v>
+        <v>43450</v>
       </c>
       <c r="B77" s="2">
-        <v>3143.36</v>
+        <v>3196.3</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>43559</v>
+        <v>43451</v>
       </c>
       <c r="B78" s="4">
-        <v>3128.47</v>
+        <v>3196.3</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43560</v>
+        <v>43452</v>
       </c>
       <c r="B79" s="2">
-        <v>3132.78</v>
+        <v>3188.66</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>43561</v>
+        <v>43453</v>
       </c>
       <c r="B80" s="4">
-        <v>3126.2</v>
+        <v>3198.45</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43564</v>
+        <v>43454</v>
       </c>
       <c r="B81" s="2">
-        <v>3115.22</v>
+        <v>3216.55</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>43565</v>
+        <v>43455</v>
       </c>
       <c r="B82" s="4">
-        <v>3105.2</v>
+        <v>3246.86</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43566</v>
+        <v>43456</v>
       </c>
       <c r="B83" s="2">
-        <v>3095.66</v>
+        <v>3285.34</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>43567</v>
+        <v>43457</v>
       </c>
       <c r="B84" s="4">
-        <v>3113.91</v>
+        <v>3285.34</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43568</v>
+        <v>43458</v>
       </c>
       <c r="B85" s="2">
-        <v>3109.32</v>
+        <v>3285.34</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>43571</v>
+        <v>43459</v>
       </c>
       <c r="B86" s="4">
-        <v>3136.69</v>
+        <v>3285.51</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43572</v>
+        <v>43460</v>
       </c>
       <c r="B87" s="2">
-        <v>3160.87</v>
+        <v>3285.51</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>43573</v>
+        <v>43461</v>
       </c>
       <c r="B88" s="4">
-        <v>3160.48</v>
+        <v>3289.69</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43578</v>
+        <v>43462</v>
       </c>
       <c r="B89" s="2">
-        <v>3149.99</v>
+        <v>3275.01</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>43579</v>
+        <v>43463</v>
       </c>
       <c r="B90" s="4">
-        <v>3177.94</v>
+        <v>3249.75</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43580</v>
+        <v>43464</v>
       </c>
       <c r="B91" s="2">
-        <v>3213.23</v>
+        <v>3249.75</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>43581</v>
+        <v>43465</v>
       </c>
       <c r="B92" s="4">
-        <v>3237.98</v>
-      </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="4"/>
+        <v>3249.75</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43582</v>
+        <v>43466</v>
       </c>
       <c r="B93" s="2">
-        <v>3227.79</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="2"/>
+        <v>3249.75</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="4"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>43585</v>
+        <v>43467</v>
       </c>
       <c r="B94" s="4">
-        <v>3247.72</v>
-      </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="4"/>
+        <v>3249.75</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43586</v>
+        <v>43468</v>
       </c>
       <c r="B95" s="2">
-        <v>3233.97</v>
-      </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="2"/>
+        <v>3250.01</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="4"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>43588</v>
-      </c>
-      <c r="B96" s="2">
-        <v>3262.17</v>
+      <c r="A96" s="3">
+        <v>43469</v>
+      </c>
+      <c r="B96" s="4">
+        <v>3241.2</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
-        <v>43589</v>
-      </c>
-      <c r="B97" s="4">
-        <v>3240.44</v>
+      <c r="A97" s="1">
+        <v>43470</v>
+      </c>
+      <c r="B97" s="2">
+        <v>3208.56</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="4"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>43592</v>
-      </c>
-      <c r="B98" s="2">
-        <v>3254.03</v>
+      <c r="A98" s="3">
+        <v>43471</v>
+      </c>
+      <c r="B98" s="4">
+        <v>3208.56</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
-        <v>43593</v>
-      </c>
-      <c r="B99" s="4">
-        <v>3288.81</v>
+      <c r="A99" s="1">
+        <v>43472</v>
+      </c>
+      <c r="B99" s="2">
+        <v>3208.56</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="4"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>43594</v>
-      </c>
-      <c r="B100" s="2">
-        <v>3290.12</v>
+      <c r="A100" s="3">
+        <v>43473</v>
+      </c>
+      <c r="B100" s="4">
+        <v>3208.56</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
-        <v>43595</v>
-      </c>
-      <c r="B101" s="4">
-        <v>3293.62</v>
+      <c r="A101" s="1">
+        <v>43474</v>
+      </c>
+      <c r="B101" s="2">
+        <v>3164.75</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="4"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>43596</v>
-      </c>
-      <c r="B102" s="2">
-        <v>3274.3</v>
+      <c r="A102" s="3">
+        <v>43475</v>
+      </c>
+      <c r="B102" s="4">
+        <v>3128.07</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
-        <v>43599</v>
-      </c>
-      <c r="B103" s="4">
-        <v>3299.01</v>
+      <c r="A103" s="1">
+        <v>43476</v>
+      </c>
+      <c r="B103" s="2">
+        <v>3136.49</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="4"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>43600</v>
-      </c>
-      <c r="B104" s="2">
-        <v>3285.14</v>
+      <c r="A104" s="3">
+        <v>43477</v>
+      </c>
+      <c r="B104" s="4">
+        <v>3151.49</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
-        <v>43601</v>
-      </c>
-      <c r="B105" s="4">
-        <v>3295.51</v>
+      <c r="A105" s="1">
+        <v>43478</v>
+      </c>
+      <c r="B105" s="2">
+        <v>3151.49</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="4"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>43602</v>
-      </c>
-      <c r="B106" s="2">
-        <v>3290.27</v>
+      <c r="A106" s="3">
+        <v>43479</v>
+      </c>
+      <c r="B106" s="4">
+        <v>3151.49</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
-        <v>43603</v>
-      </c>
-      <c r="B107" s="4">
-        <v>3313.72</v>
+      <c r="A107" s="1">
+        <v>43480</v>
+      </c>
+      <c r="B107" s="2">
+        <v>3143.22</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="4"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>43606</v>
-      </c>
-      <c r="B108" s="2">
-        <v>3342.21</v>
+      <c r="A108" s="3">
+        <v>43481</v>
+      </c>
+      <c r="B108" s="4">
+        <v>3137.66</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
-        <v>43607</v>
-      </c>
-      <c r="B109" s="4">
-        <v>3344.45</v>
+      <c r="A109" s="1">
+        <v>43482</v>
+      </c>
+      <c r="B109" s="2">
+        <v>3124.96</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="4"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>43608</v>
-      </c>
-      <c r="B110" s="2">
-        <v>3340.96</v>
+      <c r="A110" s="3">
+        <v>43483</v>
+      </c>
+      <c r="B110" s="4">
+        <v>3140.19</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
-        <v>43609</v>
-      </c>
-      <c r="B111" s="4">
-        <v>3368.76</v>
+      <c r="A111" s="1">
+        <v>43484</v>
+      </c>
+      <c r="B111" s="2">
+        <v>3120.56</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="4"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>43610</v>
-      </c>
-      <c r="B112" s="2">
-        <v>3358.84</v>
+      <c r="A112" s="3">
+        <v>43485</v>
+      </c>
+      <c r="B112" s="4">
+        <v>3120.56</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43614</v>
+        <v>43486</v>
       </c>
       <c r="B113" s="2">
-        <v>3362.48</v>
-      </c>
-      <c r="E113" s="1"/>
-      <c r="F113" s="2"/>
+        <v>3120.56</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="4"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>43615</v>
+        <v>43487</v>
       </c>
       <c r="B114" s="4">
-        <v>3375.29</v>
-      </c>
-      <c r="E114" s="3"/>
-      <c r="F114" s="4"/>
+        <v>3120.56</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43616</v>
+        <v>43488</v>
       </c>
       <c r="B115" s="2">
-        <v>3357.82</v>
-      </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="2"/>
+        <v>3136.59</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>43617</v>
+        <v>43489</v>
       </c>
       <c r="B116" s="4">
-        <v>3377.16</v>
+        <v>3146.14</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="4"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
-        <v>43621</v>
-      </c>
-      <c r="B117" s="4">
-        <v>3306.37</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="4"/>
+      <c r="A117" s="1">
+        <v>43490</v>
+      </c>
+      <c r="B117" s="2">
+        <v>3160.52</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>43622</v>
-      </c>
-      <c r="B118" s="2">
-        <v>3296.87</v>
-      </c>
-      <c r="E118" s="1"/>
-      <c r="F118" s="2"/>
+      <c r="A118" s="3">
+        <v>43491</v>
+      </c>
+      <c r="B118" s="4">
+        <v>3150.58</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="4"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
-        <v>43623</v>
-      </c>
-      <c r="B119" s="4">
-        <v>3288.69</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="4"/>
+      <c r="A119" s="1">
+        <v>43492</v>
+      </c>
+      <c r="B119" s="2">
+        <v>3150.58</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>43624</v>
-      </c>
-      <c r="B120" s="2">
-        <v>3274.72</v>
-      </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="2"/>
+      <c r="A120" s="3">
+        <v>43493</v>
+      </c>
+      <c r="B120" s="4">
+        <v>3150.58</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="4"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
-        <v>43627</v>
-      </c>
-      <c r="B121" s="4">
-        <v>3257.06</v>
-      </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="4"/>
+      <c r="A121" s="1">
+        <v>43494</v>
+      </c>
+      <c r="B121" s="2">
+        <v>3167.86</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>43628</v>
-      </c>
-      <c r="B122" s="2">
-        <v>3249.56</v>
-      </c>
-      <c r="E122" s="1"/>
-      <c r="F122" s="2"/>
+      <c r="A122" s="3">
+        <v>43495</v>
+      </c>
+      <c r="B122" s="4">
+        <v>3157.52</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="4"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
-        <v>43629</v>
-      </c>
-      <c r="B123" s="4">
-        <v>3264.47</v>
-      </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="4"/>
+      <c r="A123" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B123" s="2">
+        <v>3163.46</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>43630</v>
-      </c>
-      <c r="B124" s="2">
-        <v>3266.72</v>
-      </c>
-      <c r="E124" s="1"/>
-      <c r="F124" s="2"/>
+      <c r="A124" s="3">
+        <v>43497</v>
+      </c>
+      <c r="B124" s="4">
+        <v>3115.7</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="4"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
-        <v>43631</v>
-      </c>
-      <c r="B125" s="4">
-        <v>3270.7</v>
-      </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="4"/>
+      <c r="A125" s="1">
+        <v>43498</v>
+      </c>
+      <c r="B125" s="2">
+        <v>3102.61</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>43634</v>
-      </c>
-      <c r="B126" s="2">
-        <v>3286.63</v>
-      </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="2"/>
+      <c r="A126" s="3">
+        <v>43499</v>
+      </c>
+      <c r="B126" s="4">
+        <v>3102.61</v>
+      </c>
+      <c r="E126" s="3"/>
+      <c r="F126" s="4"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
-        <v>43635</v>
-      </c>
-      <c r="B127" s="4">
-        <v>3264.98</v>
-      </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="4"/>
+      <c r="A127" s="1">
+        <v>43500</v>
+      </c>
+      <c r="B127" s="2">
+        <v>3102.61</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>43636</v>
-      </c>
-      <c r="B128" s="2">
-        <v>3248.91</v>
-      </c>
-      <c r="E128" s="1"/>
-      <c r="F128" s="2"/>
+      <c r="A128" s="3">
+        <v>43501</v>
+      </c>
+      <c r="B128" s="4">
+        <v>3089.4</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="4"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
-        <v>43637</v>
-      </c>
-      <c r="B129" s="4">
-        <v>3202.01</v>
-      </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="4"/>
+      <c r="A129" s="1">
+        <v>43502</v>
+      </c>
+      <c r="B129" s="2">
+        <v>3094.05</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>43638</v>
-      </c>
-      <c r="B130" s="2">
-        <v>3191.17</v>
-      </c>
-      <c r="E130" s="1"/>
-      <c r="F130" s="2"/>
+      <c r="A130" s="3">
+        <v>43503</v>
+      </c>
+      <c r="B130" s="4">
+        <v>3108.54</v>
+      </c>
+      <c r="E130" s="3"/>
+      <c r="F130" s="4"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>43642</v>
+        <v>43504</v>
       </c>
       <c r="B131" s="2">
-        <v>3187.15</v>
+        <v>3110.46</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>43643</v>
+        <v>43505</v>
       </c>
       <c r="B132" s="4">
-        <v>3177.94</v>
+        <v>3115.94</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="4"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43644</v>
+        <v>43506</v>
       </c>
       <c r="B133" s="2">
-        <v>3197.23</v>
+        <v>3115.94</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>43645</v>
+        <v>43507</v>
       </c>
       <c r="B134" s="4">
-        <v>3205.67</v>
+        <v>3115.94</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="4"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
-        <v>43649</v>
-      </c>
-      <c r="B135" s="4">
-        <v>3211.06</v>
-      </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="4"/>
+      <c r="A135" s="1">
+        <v>43508</v>
+      </c>
+      <c r="B135" s="2">
+        <v>3132.61</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>43650</v>
-      </c>
-      <c r="B136" s="2">
-        <v>3206.92</v>
-      </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="2"/>
+      <c r="A136" s="3">
+        <v>43509</v>
+      </c>
+      <c r="B136" s="4">
+        <v>3131.1</v>
+      </c>
+      <c r="E136" s="3"/>
+      <c r="F136" s="4"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43652</v>
+        <v>43510</v>
       </c>
       <c r="B137" s="2">
-        <v>3217.18</v>
+        <v>3135.56</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>43655</v>
+        <v>43511</v>
       </c>
       <c r="B138" s="4">
-        <v>3207.66</v>
+        <v>3155.27</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="4"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>43656</v>
+        <v>43512</v>
       </c>
       <c r="B139" s="2">
-        <v>3223.67</v>
+        <v>3141.4</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>43657</v>
+        <v>43513</v>
       </c>
       <c r="B140" s="4">
-        <v>3212.91</v>
-      </c>
-      <c r="E140" s="3"/>
-      <c r="F140" s="4"/>
+        <v>3141.4</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>43658</v>
+        <v>43514</v>
       </c>
       <c r="B141" s="2">
-        <v>3197.5</v>
-      </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="2"/>
+        <v>3141.4</v>
+      </c>
+      <c r="E141" s="3"/>
+      <c r="F141" s="4"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>43659</v>
+        <v>43515</v>
       </c>
       <c r="B142" s="4">
-        <v>3190.33</v>
-      </c>
-      <c r="E142" s="3"/>
-      <c r="F142" s="4"/>
+        <v>3141.4</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>43662</v>
+        <v>43516</v>
       </c>
       <c r="B143" s="2">
-        <v>3190.66</v>
-      </c>
-      <c r="E143" s="1"/>
-      <c r="F143" s="2"/>
+        <v>3118.36</v>
+      </c>
+      <c r="E143" s="3"/>
+      <c r="F143" s="4"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>43663</v>
+        <v>43517</v>
       </c>
       <c r="B144" s="4">
-        <v>3199.72</v>
-      </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="4"/>
+        <v>3112.18</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="2"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>43664</v>
+        <v>43518</v>
       </c>
       <c r="B145" s="2">
-        <v>3189.21</v>
-      </c>
-      <c r="E145" s="1"/>
-      <c r="F145" s="2"/>
+        <v>3119.42</v>
+      </c>
+      <c r="E145" s="3"/>
+      <c r="F145" s="4"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>43665</v>
+        <v>43519</v>
       </c>
       <c r="B146" s="4">
-        <v>3183.01</v>
-      </c>
-      <c r="E146" s="3"/>
-      <c r="F146" s="4"/>
+        <v>3110.29</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>43666</v>
+        <v>43520</v>
       </c>
       <c r="B147" s="2">
-        <v>3169.51</v>
-      </c>
-      <c r="E147" s="1"/>
-      <c r="F147" s="2"/>
+        <v>3110.29</v>
+      </c>
+      <c r="E147" s="3"/>
+      <c r="F147" s="4"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>43669</v>
+        <v>43521</v>
       </c>
       <c r="B148" s="4">
-        <v>3177.76</v>
-      </c>
-      <c r="E148" s="3"/>
-      <c r="F148" s="4"/>
+        <v>3110.29</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>43670</v>
+        <v>43522</v>
       </c>
       <c r="B149" s="2">
-        <v>3188.01</v>
-      </c>
-      <c r="E149" s="1"/>
-      <c r="F149" s="2"/>
+        <v>3101.41</v>
+      </c>
+      <c r="E149" s="3"/>
+      <c r="F149" s="4"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>43671</v>
+        <v>43523</v>
       </c>
       <c r="B150" s="4">
-        <v>3194.67</v>
-      </c>
-      <c r="E150" s="3"/>
-      <c r="F150" s="4"/>
+        <v>3095.29</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>43672</v>
+        <v>43524</v>
       </c>
       <c r="B151" s="2">
-        <v>3213.09</v>
-      </c>
-      <c r="E151" s="1"/>
-      <c r="F151" s="2"/>
+        <v>3072.01</v>
+      </c>
+      <c r="E151" s="3"/>
+      <c r="F151" s="4"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>43673</v>
+        <v>43525</v>
       </c>
       <c r="B152" s="4">
-        <v>3233.26</v>
-      </c>
-      <c r="E152" s="3"/>
-      <c r="F152" s="4"/>
+        <v>3077.35</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>43676</v>
+        <v>43526</v>
       </c>
       <c r="B153" s="2">
-        <v>3262.81</v>
-      </c>
-      <c r="E153" s="1"/>
-      <c r="F153" s="2"/>
+        <v>3091.49</v>
+      </c>
+      <c r="E153" s="3"/>
+      <c r="F153" s="4"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>43677</v>
+        <v>43527</v>
       </c>
       <c r="B154" s="4">
-        <v>3296.85</v>
-      </c>
-      <c r="E154" s="3"/>
-      <c r="F154" s="4"/>
+        <v>3091.49</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>43678</v>
+        <v>43528</v>
       </c>
       <c r="B155" s="2">
-        <v>3291.79</v>
-      </c>
-      <c r="E155" s="1"/>
-      <c r="F155" s="2"/>
+        <v>3091.49</v>
+      </c>
+      <c r="E155" s="3"/>
+      <c r="F155" s="4"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>43679</v>
+        <v>43529</v>
       </c>
       <c r="B156" s="4">
-        <v>3329.23</v>
-      </c>
-      <c r="E156" s="3"/>
-      <c r="F156" s="4"/>
+        <v>3093.79</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>43680</v>
+        <v>43530</v>
       </c>
       <c r="B157" s="2">
-        <v>3365.78</v>
+        <v>3099.12</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>43683</v>
+        <v>43531</v>
       </c>
       <c r="B158" s="4">
-        <v>3459.47</v>
+        <v>3106.16</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="4"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>43684</v>
+        <v>43532</v>
       </c>
       <c r="B159" s="2">
-        <v>3431.28</v>
+        <v>3120.04</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
-        <v>43686</v>
-      </c>
-      <c r="B160" s="2">
-        <v>3394.61</v>
-      </c>
-      <c r="E160" s="1"/>
-      <c r="F160" s="2"/>
+      <c r="A160" s="3">
+        <v>43533</v>
+      </c>
+      <c r="B160" s="4">
+        <v>3162.4</v>
+      </c>
+      <c r="E160" s="3"/>
+      <c r="F160" s="4"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="3">
-        <v>43687</v>
-      </c>
-      <c r="B161" s="4">
-        <v>3382.71</v>
+      <c r="A161" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B161" s="2">
+        <v>3162.4</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="4"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
-        <v>43690</v>
-      </c>
-      <c r="B162" s="2">
-        <v>3436.26</v>
+      <c r="A162" s="3">
+        <v>43535</v>
+      </c>
+      <c r="B162" s="4">
+        <v>3162.4</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="3">
-        <v>43691</v>
-      </c>
-      <c r="B163" s="4">
-        <v>3407.76</v>
+      <c r="A163" s="1">
+        <v>43536</v>
+      </c>
+      <c r="B163" s="2">
+        <v>3168.35</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="4"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
-        <v>43692</v>
-      </c>
-      <c r="B164" s="2">
-        <v>3449.27</v>
+      <c r="A164" s="3">
+        <v>43537</v>
+      </c>
+      <c r="B164" s="4">
+        <v>3153.2</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="3">
-        <v>43693</v>
-      </c>
-      <c r="B165" s="4">
-        <v>3447.76</v>
+      <c r="A165" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B165" s="2">
+        <v>3145.53</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="4"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
-        <v>43694</v>
-      </c>
-      <c r="B166" s="2">
-        <v>3441.4</v>
+      <c r="A166" s="3">
+        <v>43539</v>
+      </c>
+      <c r="B166" s="4">
+        <v>3144.42</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>43698</v>
+        <v>43540</v>
       </c>
       <c r="B167" s="2">
-        <v>3420.99</v>
-      </c>
-      <c r="E167" s="1"/>
-      <c r="F167" s="2"/>
+        <v>3123.28</v>
+      </c>
+      <c r="E167" s="3"/>
+      <c r="F167" s="4"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>43699</v>
+        <v>43541</v>
       </c>
       <c r="B168" s="4">
-        <v>3385.28</v>
-      </c>
-      <c r="E168" s="3"/>
-      <c r="F168" s="4"/>
+        <v>3123.28</v>
+      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>43700</v>
+        <v>43542</v>
       </c>
       <c r="B169" s="2">
-        <v>3376.99</v>
-      </c>
-      <c r="E169" s="1"/>
-      <c r="F169" s="2"/>
+        <v>3123.28</v>
+      </c>
+      <c r="E169" s="3"/>
+      <c r="F169" s="4"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>43701</v>
+        <v>43543</v>
       </c>
       <c r="B170" s="4">
-        <v>3399.95</v>
-      </c>
-      <c r="E170" s="3"/>
-      <c r="F170" s="4"/>
+        <v>3102.25</v>
+      </c>
+      <c r="E170" s="1"/>
+      <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>43704</v>
+        <v>43544</v>
       </c>
       <c r="B171" s="2">
-        <v>3432.85</v>
-      </c>
-      <c r="E171" s="1"/>
-      <c r="F171" s="2"/>
+        <v>3095.39</v>
+      </c>
+      <c r="E171" s="3"/>
+      <c r="F171" s="4"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>43705</v>
+        <v>43545</v>
       </c>
       <c r="B172" s="4">
-        <v>3457.89</v>
-      </c>
-      <c r="E172" s="3"/>
-      <c r="F172" s="4"/>
+        <v>3092.39</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>43706</v>
+        <v>43546</v>
       </c>
       <c r="B173" s="2">
-        <v>3477.53</v>
-      </c>
-      <c r="E173" s="1"/>
-      <c r="F173" s="2"/>
+        <v>3082.45</v>
+      </c>
+      <c r="E173" s="3"/>
+      <c r="F173" s="4"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>43707</v>
+        <v>43547</v>
       </c>
       <c r="B174" s="4">
-        <v>3464.15</v>
-      </c>
-      <c r="E174" s="3"/>
-      <c r="F174" s="4"/>
+        <v>3126.19</v>
+      </c>
+      <c r="E174" s="1"/>
+      <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>43708</v>
+        <v>43548</v>
       </c>
       <c r="B175" s="2">
-        <v>3427.29</v>
+        <v>3126.19</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
-        <v>43712</v>
-      </c>
-      <c r="B176" s="2">
-        <v>3438.61</v>
-      </c>
-      <c r="E176" s="1"/>
-      <c r="F176" s="2"/>
+      <c r="A176" s="3">
+        <v>43549</v>
+      </c>
+      <c r="B176" s="4">
+        <v>3126.19</v>
+      </c>
+      <c r="E176" s="3"/>
+      <c r="F176" s="4"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="3">
-        <v>43713</v>
-      </c>
-      <c r="B177" s="4">
-        <v>3401.04</v>
-      </c>
-      <c r="E177" s="3"/>
-      <c r="F177" s="4"/>
+      <c r="A177" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B177" s="2">
+        <v>3126.19</v>
+      </c>
+      <c r="E177" s="1"/>
+      <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>43714</v>
-      </c>
-      <c r="B178" s="2">
-        <v>3377.39</v>
-      </c>
-      <c r="E178" s="1"/>
-      <c r="F178" s="2"/>
+      <c r="A178" s="3">
+        <v>43551</v>
+      </c>
+      <c r="B178" s="4">
+        <v>3145.55</v>
+      </c>
+      <c r="E178" s="3"/>
+      <c r="F178" s="4"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="3">
-        <v>43715</v>
-      </c>
-      <c r="B179" s="4">
-        <v>3361.7</v>
+      <c r="A179" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B179" s="2">
+        <v>3186.43</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="4"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
-        <v>43718</v>
-      </c>
-      <c r="B180" s="2">
-        <v>3368.8</v>
+      <c r="A180" s="3">
+        <v>43553</v>
+      </c>
+      <c r="B180" s="4">
+        <v>3190.94</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="3">
-        <v>43719</v>
-      </c>
-      <c r="B181" s="4">
-        <v>3373.75</v>
-      </c>
-      <c r="E181" s="3"/>
-      <c r="F181" s="4"/>
+      <c r="A181" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B181" s="2">
+        <v>3174.79</v>
+      </c>
+      <c r="E181" s="1"/>
+      <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>43720</v>
-      </c>
-      <c r="B182" s="2">
-        <v>3372.48</v>
-      </c>
-      <c r="E182" s="1"/>
-      <c r="F182" s="2"/>
+      <c r="A182" s="3">
+        <v>43555</v>
+      </c>
+      <c r="B182" s="4">
+        <v>3174.79</v>
+      </c>
+      <c r="E182" s="3"/>
+      <c r="F182" s="4"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="3">
-        <v>43721</v>
-      </c>
-      <c r="B183" s="4">
-        <v>3359.2</v>
-      </c>
-      <c r="E183" s="3"/>
-      <c r="F183" s="4"/>
+      <c r="A183" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B183" s="2">
+        <v>3174.79</v>
+      </c>
+      <c r="E183" s="1"/>
+      <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
-        <v>43722</v>
-      </c>
-      <c r="B184" s="2">
-        <v>3356.15</v>
-      </c>
-      <c r="E184" s="1"/>
-      <c r="F184" s="2"/>
+      <c r="A184" s="3">
+        <v>43557</v>
+      </c>
+      <c r="B184" s="4">
+        <v>3146.81</v>
+      </c>
+      <c r="E184" s="3"/>
+      <c r="F184" s="4"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="3">
-        <v>43725</v>
-      </c>
-      <c r="B185" s="4">
-        <v>3364.43</v>
-      </c>
-      <c r="E185" s="3"/>
-      <c r="F185" s="4"/>
+      <c r="A185" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B185" s="2">
+        <v>3143.36</v>
+      </c>
+      <c r="E185" s="1"/>
+      <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
-        <v>43726</v>
-      </c>
-      <c r="B186" s="2">
-        <v>3380.92</v>
-      </c>
-      <c r="E186" s="1"/>
-      <c r="F186" s="2"/>
+      <c r="A186" s="3">
+        <v>43559</v>
+      </c>
+      <c r="B186" s="4">
+        <v>3128.47</v>
+      </c>
+      <c r="E186" s="3"/>
+      <c r="F186" s="4"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="3">
-        <v>43727</v>
-      </c>
-      <c r="B187" s="4">
-        <v>3377.79</v>
-      </c>
-      <c r="E187" s="3"/>
-      <c r="F187" s="4"/>
+      <c r="A187" s="1">
+        <v>43560</v>
+      </c>
+      <c r="B187" s="2">
+        <v>3132.78</v>
+      </c>
+      <c r="E187" s="1"/>
+      <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>43728</v>
-      </c>
-      <c r="B188" s="2">
-        <v>3377.72</v>
-      </c>
-      <c r="E188" s="1"/>
-      <c r="F188" s="2"/>
+      <c r="A188" s="3">
+        <v>43561</v>
+      </c>
+      <c r="B188" s="4">
+        <v>3126.2</v>
+      </c>
+      <c r="E188" s="3"/>
+      <c r="F188" s="4"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="3">
-        <v>43729</v>
-      </c>
-      <c r="B189" s="4">
-        <v>3402.32</v>
-      </c>
-      <c r="E189" s="3"/>
-      <c r="F189" s="4"/>
+      <c r="A189" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B189" s="2">
+        <v>3126.2</v>
+      </c>
+      <c r="E189" s="1"/>
+      <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>43732</v>
-      </c>
-      <c r="B190" s="2">
-        <v>3437.78</v>
-      </c>
-      <c r="E190" s="1"/>
-      <c r="F190" s="2"/>
+      <c r="A190" s="3">
+        <v>43563</v>
+      </c>
+      <c r="B190" s="4">
+        <v>3126.2</v>
+      </c>
+      <c r="E190" s="3"/>
+      <c r="F190" s="4"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="3">
-        <v>43733</v>
-      </c>
-      <c r="B191" s="4">
-        <v>3438.66</v>
-      </c>
-      <c r="E191" s="3"/>
-      <c r="F191" s="4"/>
+      <c r="A191" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B191" s="2">
+        <v>3115.22</v>
+      </c>
+      <c r="E191" s="1"/>
+      <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
-        <v>43734</v>
-      </c>
-      <c r="B192" s="2">
-        <v>3451.02</v>
-      </c>
-      <c r="E192" s="1"/>
-      <c r="F192" s="2"/>
+      <c r="A192" s="3">
+        <v>43565</v>
+      </c>
+      <c r="B192" s="4">
+        <v>3105.2</v>
+      </c>
+      <c r="E192" s="3"/>
+      <c r="F192" s="4"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="3">
-        <v>43735</v>
-      </c>
-      <c r="B193" s="4">
-        <v>3435.71</v>
-      </c>
-      <c r="E193" s="3"/>
-      <c r="F193" s="4"/>
+      <c r="A193" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B193" s="2">
+        <v>3095.66</v>
+      </c>
+      <c r="E193" s="1"/>
+      <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
-        <v>43736</v>
-      </c>
-      <c r="B194" s="2">
-        <v>3462.01</v>
-      </c>
-      <c r="E194" s="1"/>
-      <c r="F194" s="2"/>
+      <c r="A194" s="3">
+        <v>43567</v>
+      </c>
+      <c r="B194" s="4">
+        <v>3113.91</v>
+      </c>
+      <c r="E194" s="3"/>
+      <c r="F194" s="4"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="3">
-        <v>43739</v>
-      </c>
-      <c r="B195" s="4">
-        <v>3477.45</v>
-      </c>
-      <c r="E195" s="3"/>
-      <c r="F195" s="4"/>
+      <c r="A195" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B195" s="2">
+        <v>3109.32</v>
+      </c>
+      <c r="E195" s="1"/>
+      <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
-        <v>43740</v>
-      </c>
-      <c r="B196" s="2">
-        <v>3491.29</v>
-      </c>
-      <c r="E196" s="1"/>
-      <c r="F196" s="2"/>
+      <c r="A196" s="3">
+        <v>43569</v>
+      </c>
+      <c r="B196" s="4">
+        <v>3109.32</v>
+      </c>
+      <c r="E196" s="3"/>
+      <c r="F196" s="4"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="3">
-        <v>43741</v>
-      </c>
-      <c r="B197" s="4">
-        <v>3497.34</v>
-      </c>
-      <c r="E197" s="3"/>
-      <c r="F197" s="4"/>
+      <c r="A197" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B197" s="2">
+        <v>3109.32</v>
+      </c>
+      <c r="E197" s="1"/>
+      <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
-        <v>43742</v>
-      </c>
-      <c r="B198" s="2">
-        <v>3467.6</v>
-      </c>
-      <c r="E198" s="1"/>
-      <c r="F198" s="2"/>
+      <c r="A198" s="3">
+        <v>43571</v>
+      </c>
+      <c r="B198" s="4">
+        <v>3136.69</v>
+      </c>
+      <c r="E198" s="3"/>
+      <c r="F198" s="4"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="3">
-        <v>43743</v>
-      </c>
-      <c r="B199" s="4">
-        <v>3430.28</v>
-      </c>
-      <c r="E199" s="3"/>
-      <c r="F199" s="4"/>
+      <c r="A199" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B199" s="2">
+        <v>3160.87</v>
+      </c>
+      <c r="E199" s="1"/>
+      <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
-        <v>43746</v>
-      </c>
-      <c r="B200" s="2">
-        <v>3445.76</v>
-      </c>
-      <c r="E200" s="1"/>
-      <c r="F200" s="2"/>
+      <c r="A200" s="3">
+        <v>43573</v>
+      </c>
+      <c r="B200" s="4">
+        <v>3160.48</v>
+      </c>
+      <c r="E200" s="3"/>
+      <c r="F200" s="4"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="3">
-        <v>43747</v>
-      </c>
-      <c r="B201" s="4">
-        <v>3452.57</v>
-      </c>
-      <c r="E201" s="3"/>
-      <c r="F201" s="4"/>
+      <c r="A201" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B201" s="2">
+        <v>3160.48</v>
+      </c>
+      <c r="E201" s="1"/>
+      <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
-        <v>43748</v>
-      </c>
-      <c r="B202" s="2">
-        <v>3454.56</v>
-      </c>
-      <c r="E202" s="1"/>
-      <c r="F202" s="2"/>
+      <c r="A202" s="3">
+        <v>43575</v>
+      </c>
+      <c r="B202" s="4">
+        <v>3160.48</v>
+      </c>
+      <c r="E202" s="3"/>
+      <c r="F202" s="4"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="3">
-        <v>43749</v>
-      </c>
-      <c r="B203" s="4">
-        <v>3458.42</v>
-      </c>
-      <c r="E203" s="3"/>
-      <c r="F203" s="4"/>
+      <c r="A203" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B203" s="2">
+        <v>3160.48</v>
+      </c>
+      <c r="E203" s="1"/>
+      <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
-        <v>43750</v>
-      </c>
-      <c r="B204" s="2">
-        <v>3431.46</v>
+      <c r="A204" s="3">
+        <v>43577</v>
+      </c>
+      <c r="B204" s="4">
+        <v>3160.48</v>
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>43754</v>
+        <v>43578</v>
       </c>
       <c r="B205" s="2">
-        <v>3451.33</v>
-      </c>
-      <c r="E205" s="1"/>
-      <c r="F205" s="2"/>
+        <v>3149.99</v>
+      </c>
+      <c r="E205" s="3"/>
+      <c r="F205" s="4"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
-        <v>43755</v>
+        <v>43579</v>
       </c>
       <c r="B206" s="4">
-        <v>3459.55</v>
-      </c>
-      <c r="E206" s="3"/>
-      <c r="F206" s="4"/>
+        <v>3177.94</v>
+      </c>
+      <c r="E206" s="1"/>
+      <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>43756</v>
+        <v>43580</v>
       </c>
       <c r="B207" s="2">
-        <v>3465.35</v>
-      </c>
-      <c r="E207" s="1"/>
-      <c r="F207" s="2"/>
+        <v>3213.23</v>
+      </c>
+      <c r="E207" s="3"/>
+      <c r="F207" s="4"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
-        <v>43757</v>
+        <v>43581</v>
       </c>
       <c r="B208" s="4">
-        <v>3428.63</v>
-      </c>
-      <c r="E208" s="3"/>
-      <c r="F208" s="4"/>
+        <v>3237.98</v>
+      </c>
+      <c r="E208" s="1"/>
+      <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>43760</v>
+        <v>43582</v>
       </c>
       <c r="B209" s="2">
-        <v>3442.78</v>
-      </c>
-      <c r="E209" s="1"/>
-      <c r="F209" s="2"/>
+        <v>3227.79</v>
+      </c>
+      <c r="E209" s="3"/>
+      <c r="F209" s="4"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
-        <v>43761</v>
+        <v>43583</v>
       </c>
       <c r="B210" s="4">
-        <v>3430.3</v>
-      </c>
-      <c r="E210" s="3"/>
-      <c r="F210" s="4"/>
+        <v>3227.79</v>
+      </c>
+      <c r="E210" s="1"/>
+      <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>43762</v>
+        <v>43584</v>
       </c>
       <c r="B211" s="2">
-        <v>3409.29</v>
+        <v>3227.79</v>
       </c>
       <c r="E211" s="1"/>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
-        <v>43763</v>
+        <v>43585</v>
       </c>
       <c r="B212" s="4">
-        <v>3387.72</v>
+        <v>3247.72</v>
       </c>
       <c r="E212" s="3"/>
       <c r="F212" s="4"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>43764</v>
+        <v>43586</v>
       </c>
       <c r="B213" s="2">
-        <v>3395.25</v>
+        <v>3233.97</v>
       </c>
       <c r="E213" s="1"/>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
-        <v>43767</v>
+        <v>43587</v>
       </c>
       <c r="B214" s="4">
-        <v>3382.19</v>
+        <v>3233.97</v>
       </c>
       <c r="E214" s="3"/>
       <c r="F214" s="4"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>43768</v>
+        <v>43588</v>
       </c>
       <c r="B215" s="2">
-        <v>3380.9</v>
+        <v>3262.17</v>
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
-        <v>43769</v>
+        <v>43589</v>
       </c>
       <c r="B216" s="4">
-        <v>3389.94</v>
+        <v>3240.44</v>
       </c>
       <c r="E216" s="3"/>
       <c r="F216" s="4"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>43770</v>
+        <v>43590</v>
       </c>
       <c r="B217" s="2">
-        <v>3383.29</v>
+        <v>3240.44</v>
       </c>
       <c r="E217" s="1"/>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
-        <v>43771</v>
+        <v>43591</v>
       </c>
       <c r="B218" s="4">
-        <v>3339.19</v>
+        <v>3240.44</v>
       </c>
       <c r="E218" s="3"/>
       <c r="F218" s="4"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="3">
-        <v>43775</v>
-      </c>
-      <c r="B219" s="4">
-        <v>3318.47</v>
-      </c>
-      <c r="E219" s="3"/>
-      <c r="F219" s="4"/>
+      <c r="A219" s="1">
+        <v>43592</v>
+      </c>
+      <c r="B219" s="2">
+        <v>3254.03</v>
+      </c>
+      <c r="E219" s="1"/>
+      <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
-        <v>43776</v>
-      </c>
-      <c r="B220" s="2">
-        <v>3319.64</v>
+      <c r="A220" s="3">
+        <v>43593</v>
+      </c>
+      <c r="B220" s="4">
+        <v>3288.81</v>
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="3">
-        <v>43777</v>
-      </c>
-      <c r="B221" s="4">
-        <v>3327.02</v>
+      <c r="A221" s="1">
+        <v>43594</v>
+      </c>
+      <c r="B221" s="2">
+        <v>3290.12</v>
       </c>
       <c r="E221" s="3"/>
       <c r="F221" s="4"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
-        <v>43778</v>
-      </c>
-      <c r="B222" s="2">
-        <v>3341.01</v>
+      <c r="A222" s="3">
+        <v>43595</v>
+      </c>
+      <c r="B222" s="4">
+        <v>3293.62</v>
       </c>
       <c r="E222" s="1"/>
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>43782</v>
+        <v>43596</v>
       </c>
       <c r="B223" s="2">
-        <v>3384.21</v>
-      </c>
-      <c r="E223" s="1"/>
-      <c r="F223" s="2"/>
+        <v>3274.3</v>
+      </c>
+      <c r="E223" s="3"/>
+      <c r="F223" s="4"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
-        <v>43783</v>
+        <v>43597</v>
       </c>
       <c r="B224" s="4">
-        <v>3441.89</v>
-      </c>
-      <c r="E224" s="3"/>
-      <c r="F224" s="4"/>
+        <v>3274.3</v>
+      </c>
+      <c r="E224" s="1"/>
+      <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>43784</v>
+        <v>43598</v>
       </c>
       <c r="B225" s="2">
-        <v>3452.67</v>
-      </c>
-      <c r="E225" s="1"/>
-      <c r="F225" s="2"/>
+        <v>3274.3</v>
+      </c>
+      <c r="E225" s="3"/>
+      <c r="F225" s="4"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
-        <v>43785</v>
+        <v>43599</v>
       </c>
       <c r="B226" s="4">
-        <v>3421.26</v>
-      </c>
-      <c r="E226" s="3"/>
-      <c r="F226" s="4"/>
+        <v>3299.01</v>
+      </c>
+      <c r="E226" s="1"/>
+      <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>43788</v>
+        <v>43600</v>
       </c>
       <c r="B227" s="2">
-        <v>3447.74</v>
-      </c>
-      <c r="E227" s="1"/>
-      <c r="F227" s="2"/>
+        <v>3285.14</v>
+      </c>
+      <c r="E227" s="3"/>
+      <c r="F227" s="4"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
-        <v>43789</v>
+        <v>43601</v>
       </c>
       <c r="B228" s="4">
-        <v>3434.49</v>
-      </c>
-      <c r="E228" s="3"/>
-      <c r="F228" s="4"/>
+        <v>3295.51</v>
+      </c>
+      <c r="E228" s="1"/>
+      <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>43790</v>
+        <v>43602</v>
       </c>
       <c r="B229" s="2">
-        <v>3445.95</v>
-      </c>
-      <c r="E229" s="1"/>
-      <c r="F229" s="2"/>
+        <v>3290.27</v>
+      </c>
+      <c r="E229" s="3"/>
+      <c r="F229" s="4"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
-        <v>43791</v>
+        <v>43603</v>
       </c>
       <c r="B230" s="4">
-        <v>3440.66</v>
-      </c>
-      <c r="E230" s="3"/>
-      <c r="F230" s="4"/>
+        <v>3313.72</v>
+      </c>
+      <c r="E230" s="1"/>
+      <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>43792</v>
+        <v>43604</v>
       </c>
       <c r="B231" s="2">
-        <v>3410.77</v>
-      </c>
-      <c r="E231" s="1"/>
-      <c r="F231" s="2"/>
+        <v>3313.72</v>
+      </c>
+      <c r="E231" s="3"/>
+      <c r="F231" s="4"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
-        <v>43795</v>
+        <v>43605</v>
       </c>
       <c r="B232" s="4">
-        <v>3433.94</v>
-      </c>
-      <c r="E232" s="3"/>
-      <c r="F232" s="4"/>
+        <v>3313.72</v>
+      </c>
+      <c r="E232" s="1"/>
+      <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>43796</v>
+        <v>43606</v>
       </c>
       <c r="B233" s="2">
-        <v>3469.01</v>
-      </c>
-      <c r="E233" s="1"/>
-      <c r="F233" s="2"/>
+        <v>3342.21</v>
+      </c>
+      <c r="E233" s="3"/>
+      <c r="F233" s="4"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
-        <v>43797</v>
+        <v>43607</v>
       </c>
       <c r="B234" s="4">
-        <v>3502.92</v>
-      </c>
-      <c r="E234" s="3"/>
-      <c r="F234" s="4"/>
+        <v>3344.45</v>
+      </c>
+      <c r="E234" s="1"/>
+      <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="3">
-        <v>43799</v>
-      </c>
-      <c r="B235" s="4">
-        <v>3522.48</v>
+      <c r="A235" s="1">
+        <v>43608</v>
+      </c>
+      <c r="B235" s="2">
+        <v>3340.96</v>
       </c>
       <c r="E235" s="3"/>
       <c r="F235" s="4"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
-        <v>43802</v>
-      </c>
-      <c r="B236" s="2">
-        <v>3508.39</v>
+      <c r="A236" s="3">
+        <v>43609</v>
+      </c>
+      <c r="B236" s="4">
+        <v>3368.76</v>
       </c>
       <c r="E236" s="1"/>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="3">
-        <v>43803</v>
-      </c>
-      <c r="B237" s="4">
-        <v>3506.67</v>
+      <c r="A237" s="1">
+        <v>43610</v>
+      </c>
+      <c r="B237" s="2">
+        <v>3358.84</v>
       </c>
       <c r="E237" s="3"/>
       <c r="F237" s="4"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
-        <v>43804</v>
-      </c>
-      <c r="B238" s="2">
-        <v>3478.57</v>
+      <c r="A238" s="3">
+        <v>43611</v>
+      </c>
+      <c r="B238" s="4">
+        <v>3358.84</v>
       </c>
       <c r="E238" s="1"/>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="3">
-        <v>43805</v>
-      </c>
-      <c r="B239" s="4">
-        <v>3459.97</v>
+      <c r="A239" s="1">
+        <v>43612</v>
+      </c>
+      <c r="B239" s="2">
+        <v>3358.84</v>
       </c>
       <c r="E239" s="3"/>
       <c r="F239" s="4"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
-        <v>43806</v>
-      </c>
-      <c r="B240" s="2">
-        <v>3430.31</v>
+      <c r="A240" s="3">
+        <v>43613</v>
+      </c>
+      <c r="B240" s="4">
+        <v>3358.84</v>
       </c>
       <c r="E240" s="1"/>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="3">
-        <v>43809</v>
-      </c>
-      <c r="B241" s="4">
-        <v>3418.48</v>
+      <c r="A241" s="1">
+        <v>43614</v>
+      </c>
+      <c r="B241" s="2">
+        <v>3362.48</v>
       </c>
       <c r="E241" s="3"/>
       <c r="F241" s="4"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
-        <v>43810</v>
-      </c>
-      <c r="B242" s="2">
-        <v>3418.61</v>
+      <c r="A242" s="3">
+        <v>43615</v>
+      </c>
+      <c r="B242" s="4">
+        <v>3375.29</v>
       </c>
       <c r="E242" s="1"/>
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="3">
-        <v>43811</v>
-      </c>
-      <c r="B243" s="4">
-        <v>3387.73</v>
+      <c r="A243" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B243" s="2">
+        <v>3357.82</v>
       </c>
       <c r="E243" s="3"/>
       <c r="F243" s="4"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
-        <v>43812</v>
-      </c>
-      <c r="B244" s="2">
-        <v>3372.23</v>
+      <c r="A244" s="3">
+        <v>43617</v>
+      </c>
+      <c r="B244" s="4">
+        <v>3377.16</v>
       </c>
       <c r="E244" s="1"/>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="3">
-        <v>43813</v>
-      </c>
-      <c r="B245" s="4">
-        <v>3374.29</v>
+      <c r="A245" s="1">
+        <v>43618</v>
+      </c>
+      <c r="B245" s="2">
+        <v>3377.16</v>
       </c>
       <c r="E245" s="3"/>
       <c r="F245" s="4"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
-        <v>43816</v>
-      </c>
-      <c r="B246" s="2">
-        <v>3364.24</v>
+      <c r="A246" s="3">
+        <v>43619</v>
+      </c>
+      <c r="B246" s="4">
+        <v>3377.16</v>
       </c>
       <c r="E246" s="1"/>
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="3">
-        <v>43817</v>
-      </c>
-      <c r="B247" s="4">
-        <v>3347.86</v>
+      <c r="A247" s="1">
+        <v>43620</v>
+      </c>
+      <c r="B247" s="2">
+        <v>3377.16</v>
       </c>
       <c r="E247" s="3"/>
       <c r="F247" s="4"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
-        <v>43818</v>
-      </c>
-      <c r="B248" s="2">
-        <v>3329.98</v>
+      <c r="A248" s="3">
+        <v>43621</v>
+      </c>
+      <c r="B248" s="4">
+        <v>3306.37</v>
       </c>
       <c r="E248" s="1"/>
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="3">
-        <v>43819</v>
-      </c>
-      <c r="B249" s="4">
-        <v>3322.38</v>
-      </c>
-      <c r="E249" s="3"/>
-      <c r="F249" s="4"/>
+      <c r="A249" s="1">
+        <v>43622</v>
+      </c>
+      <c r="B249" s="2">
+        <v>3296.87</v>
+      </c>
+      <c r="E249" s="1"/>
+      <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="1">
-        <v>43820</v>
-      </c>
-      <c r="B250" s="2">
-        <v>3325.47</v>
-      </c>
-      <c r="E250" s="1"/>
-      <c r="F250" s="2"/>
+      <c r="A250" s="3">
+        <v>43623</v>
+      </c>
+      <c r="B250" s="4">
+        <v>3288.69</v>
+      </c>
+      <c r="E250" s="3"/>
+      <c r="F250" s="4"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="3">
-        <v>43823</v>
-      </c>
-      <c r="B251" s="4">
-        <v>3316.92</v>
-      </c>
-      <c r="E251" s="3"/>
-      <c r="F251" s="4"/>
+      <c r="A251" s="1">
+        <v>43624</v>
+      </c>
+      <c r="B251" s="2">
+        <v>3274.72</v>
+      </c>
+      <c r="E251" s="1"/>
+      <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="1">
-        <v>43824</v>
-      </c>
-      <c r="B252" s="2">
-        <v>3305.84</v>
-      </c>
-      <c r="E252" s="1"/>
-      <c r="F252" s="2"/>
+      <c r="A252" s="3">
+        <v>43625</v>
+      </c>
+      <c r="B252" s="4">
+        <v>3274.72</v>
+      </c>
+      <c r="E252" s="3"/>
+      <c r="F252" s="4"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>43826</v>
+        <v>43626</v>
       </c>
       <c r="B253" s="2">
-        <v>3281.4</v>
+        <v>3274.72</v>
       </c>
       <c r="E253" s="1"/>
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
-        <v>43827</v>
+        <v>43627</v>
       </c>
       <c r="B254" s="4">
-        <v>3294.05</v>
+        <v>3257.06</v>
       </c>
       <c r="E254" s="3"/>
       <c r="F254" s="4"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>43830</v>
+        <v>43628</v>
       </c>
       <c r="B255" s="2">
-        <v>3277.14</v>
+        <v>3249.56</v>
       </c>
       <c r="E255" s="1"/>
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
-        <v>43833</v>
+        <v>43629</v>
       </c>
       <c r="B256" s="4">
-        <v>3258.84</v>
+        <v>3264.47</v>
       </c>
       <c r="E256" s="3"/>
       <c r="F256" s="4"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>43834</v>
+        <v>43630</v>
       </c>
       <c r="B257" s="2">
-        <v>3262.05</v>
+        <v>3266.72</v>
       </c>
       <c r="E257" s="1"/>
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="1">
-        <v>43838</v>
-      </c>
-      <c r="B258" s="2">
-        <v>3264.26</v>
-      </c>
-      <c r="E258" s="1"/>
-      <c r="F258" s="2"/>
+      <c r="A258" s="3">
+        <v>43631</v>
+      </c>
+      <c r="B258" s="4">
+        <v>3270.7</v>
+      </c>
+      <c r="E258" s="3"/>
+      <c r="F258" s="4"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="3">
-        <v>43839</v>
-      </c>
-      <c r="B259" s="4">
-        <v>3254.42</v>
-      </c>
-      <c r="E259" s="3"/>
-      <c r="F259" s="4"/>
+      <c r="A259" s="1">
+        <v>43632</v>
+      </c>
+      <c r="B259" s="2">
+        <v>3270.7</v>
+      </c>
+      <c r="E259" s="1"/>
+      <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="1">
-        <v>43840</v>
-      </c>
-      <c r="B260" s="2">
-        <v>3253.89</v>
-      </c>
-      <c r="E260" s="1"/>
-      <c r="F260" s="2"/>
+      <c r="A260" s="3">
+        <v>43633</v>
+      </c>
+      <c r="B260" s="4">
+        <v>3270.7</v>
+      </c>
+      <c r="E260" s="3"/>
+      <c r="F260" s="4"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="3">
-        <v>43841</v>
-      </c>
-      <c r="B261" s="4">
-        <v>3272.62</v>
-      </c>
-      <c r="E261" s="3"/>
-      <c r="F261" s="4"/>
+      <c r="A261" s="1">
+        <v>43634</v>
+      </c>
+      <c r="B261" s="2">
+        <v>3286.63</v>
+      </c>
+      <c r="E261" s="1"/>
+      <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="1">
-        <v>43844</v>
-      </c>
-      <c r="B262" s="2">
-        <v>3288.05</v>
-      </c>
-      <c r="E262" s="1"/>
-      <c r="F262" s="2"/>
+      <c r="A262" s="3">
+        <v>43635</v>
+      </c>
+      <c r="B262" s="4">
+        <v>3264.98</v>
+      </c>
+      <c r="E262" s="3"/>
+      <c r="F262" s="4"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="3">
-        <v>43845</v>
-      </c>
-      <c r="B263" s="4">
-        <v>3278.83</v>
+      <c r="A263" s="1">
+        <v>43636</v>
+      </c>
+      <c r="B263" s="2">
+        <v>3248.91</v>
       </c>
       <c r="E263" s="3"/>
       <c r="F263" s="4"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="1">
-        <v>43846</v>
-      </c>
-      <c r="B264" s="2">
-        <v>3296.74</v>
+      <c r="A264" s="3">
+        <v>43637</v>
+      </c>
+      <c r="B264" s="4">
+        <v>3202.01</v>
       </c>
       <c r="E264" s="1"/>
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" s="3">
-        <v>43847</v>
-      </c>
-      <c r="B265" s="4">
-        <v>3313.4</v>
+      <c r="A265" s="1">
+        <v>43638</v>
+      </c>
+      <c r="B265" s="2">
+        <v>3191.17</v>
       </c>
       <c r="E265" s="3"/>
       <c r="F265" s="4"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="1">
-        <v>43848</v>
-      </c>
-      <c r="B266" s="2">
-        <v>3320.77</v>
+      <c r="A266" s="3">
+        <v>43639</v>
+      </c>
+      <c r="B266" s="4">
+        <v>3191.17</v>
       </c>
       <c r="E266" s="1"/>
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>43852</v>
+        <v>43640</v>
       </c>
       <c r="B267" s="2">
-        <v>3347.91</v>
+        <v>3191.17</v>
       </c>
       <c r="E267" s="1"/>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
-        <v>43853</v>
+        <v>43641</v>
       </c>
       <c r="B268" s="4">
-        <v>3337.77</v>
+        <v>3191.17</v>
       </c>
       <c r="E268" s="3"/>
       <c r="F268" s="4"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>43854</v>
+        <v>43642</v>
       </c>
       <c r="B269" s="2">
-        <v>3353.76</v>
+        <v>3187.15</v>
       </c>
       <c r="E269" s="1"/>
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
-        <v>43855</v>
+        <v>43643</v>
       </c>
       <c r="B270" s="4">
-        <v>3366.01</v>
+        <v>3177.94</v>
       </c>
       <c r="E270" s="3"/>
       <c r="F270" s="4"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>43858</v>
+        <v>43644</v>
       </c>
       <c r="B271" s="2">
-        <v>3398.4</v>
+        <v>3197.23</v>
       </c>
       <c r="E271" s="1"/>
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
-        <v>43859</v>
+        <v>43645</v>
       </c>
       <c r="B272" s="4">
-        <v>3392.6</v>
+        <v>3205.67</v>
       </c>
       <c r="E272" s="3"/>
       <c r="F272" s="4"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>43860</v>
+        <v>43646</v>
       </c>
       <c r="B273" s="2">
-        <v>3395.1</v>
+        <v>3205.67</v>
       </c>
       <c r="E273" s="1"/>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
-        <v>43861</v>
+        <v>43647</v>
       </c>
       <c r="B274" s="4">
-        <v>3411.45</v>
+        <v>3205.67</v>
       </c>
       <c r="E274" s="3"/>
       <c r="F274" s="4"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>43862</v>
+        <v>43648</v>
       </c>
       <c r="B275" s="2">
-        <v>3423.24</v>
+        <v>3205.67</v>
       </c>
       <c r="E275" s="1"/>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
-        <v>43865</v>
+        <v>43649</v>
       </c>
       <c r="B276" s="4">
-        <v>3401.56</v>
+        <v>3211.06</v>
       </c>
       <c r="E276" s="3"/>
       <c r="F276" s="4"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>43866</v>
+        <v>43650</v>
       </c>
       <c r="B277" s="2">
-        <v>3368.87</v>
+        <v>3206.92</v>
       </c>
       <c r="E277" s="1"/>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
-        <v>43867</v>
+        <v>43651</v>
       </c>
       <c r="B278" s="4">
-        <v>3355.44</v>
+        <v>3206.92</v>
       </c>
       <c r="E278" s="3"/>
       <c r="F278" s="4"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>43868</v>
+        <v>43652</v>
       </c>
       <c r="B279" s="2">
-        <v>3378.43</v>
-      </c>
-      <c r="E279" s="1"/>
-      <c r="F279" s="2"/>
+        <v>3217.18</v>
+      </c>
+      <c r="E279" s="3"/>
+      <c r="F279" s="4"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
-        <v>43869</v>
+        <v>43653</v>
       </c>
       <c r="B280" s="4">
-        <v>3408.35</v>
-      </c>
-      <c r="E280" s="3"/>
-      <c r="F280" s="4"/>
+        <v>3217.18</v>
+      </c>
+      <c r="E280" s="1"/>
+      <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>43872</v>
+        <v>43654</v>
       </c>
       <c r="B281" s="2">
-        <v>3440.96</v>
-      </c>
-      <c r="E281" s="1"/>
-      <c r="F281" s="2"/>
+        <v>3217.18</v>
+      </c>
+      <c r="E281" s="3"/>
+      <c r="F281" s="4"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
-        <v>43873</v>
+        <v>43655</v>
       </c>
       <c r="B282" s="4">
-        <v>3432.89</v>
-      </c>
-      <c r="E282" s="3"/>
-      <c r="F282" s="4"/>
+        <v>3207.66</v>
+      </c>
+      <c r="E282" s="1"/>
+      <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>43874</v>
+        <v>43656</v>
       </c>
       <c r="B283" s="2">
-        <v>3394.8</v>
-      </c>
-      <c r="E283" s="1"/>
-      <c r="F283" s="2"/>
+        <v>3223.67</v>
+      </c>
+      <c r="E283" s="3"/>
+      <c r="F283" s="4"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
-        <v>43875</v>
+        <v>43657</v>
       </c>
       <c r="B284" s="4">
-        <v>3385.11</v>
-      </c>
-      <c r="E284" s="3"/>
-      <c r="F284" s="4"/>
+        <v>3212.91</v>
+      </c>
+      <c r="E284" s="1"/>
+      <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>43876</v>
+        <v>43658</v>
       </c>
       <c r="B285" s="2">
-        <v>3378.29</v>
-      </c>
-      <c r="E285" s="1"/>
-      <c r="F285" s="2"/>
+        <v>3197.5</v>
+      </c>
+      <c r="E285" s="3"/>
+      <c r="F285" s="4"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
-        <v>43880</v>
-      </c>
-      <c r="B286" s="2">
-        <v>3410.24</v>
+      <c r="A286" s="3">
+        <v>43659</v>
+      </c>
+      <c r="B286" s="4">
+        <v>3190.33</v>
       </c>
       <c r="E286" s="1"/>
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" s="3">
-        <v>43881</v>
-      </c>
-      <c r="B287" s="4">
-        <v>3400.98</v>
+      <c r="A287" s="1">
+        <v>43660</v>
+      </c>
+      <c r="B287" s="2">
+        <v>3190.33</v>
       </c>
       <c r="E287" s="3"/>
       <c r="F287" s="4"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
-        <v>43882</v>
-      </c>
-      <c r="B288" s="2">
-        <v>3403.5</v>
+      <c r="A288" s="3">
+        <v>43661</v>
+      </c>
+      <c r="B288" s="4">
+        <v>3190.33</v>
       </c>
       <c r="E288" s="1"/>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" s="3">
-        <v>43883</v>
-      </c>
-      <c r="B289" s="4">
-        <v>3398.05</v>
+      <c r="A289" s="1">
+        <v>43662</v>
+      </c>
+      <c r="B289" s="2">
+        <v>3190.66</v>
       </c>
       <c r="E289" s="3"/>
       <c r="F289" s="4"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
-        <v>43886</v>
-      </c>
-      <c r="B290" s="2">
-        <v>3431.6</v>
+      <c r="A290" s="3">
+        <v>43663</v>
+      </c>
+      <c r="B290" s="4">
+        <v>3199.72</v>
       </c>
       <c r="E290" s="1"/>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291" s="3">
-        <v>43887</v>
-      </c>
-      <c r="B291" s="4">
-        <v>3425.22</v>
+      <c r="A291" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B291" s="2">
+        <v>3189.21</v>
       </c>
       <c r="E291" s="3"/>
       <c r="F291" s="4"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
-        <v>43888</v>
-      </c>
-      <c r="B292" s="2">
-        <v>3441.88</v>
+      <c r="A292" s="3">
+        <v>43665</v>
+      </c>
+      <c r="B292" s="4">
+        <v>3183.01</v>
       </c>
       <c r="E292" s="1"/>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" s="3">
-        <v>43889</v>
-      </c>
-      <c r="B293" s="4">
-        <v>3507.11</v>
+      <c r="A293" s="1">
+        <v>43666</v>
+      </c>
+      <c r="B293" s="2">
+        <v>3169.51</v>
       </c>
       <c r="E293" s="3"/>
       <c r="F293" s="4"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
-        <v>43890</v>
-      </c>
-      <c r="B294" s="2">
-        <v>3539.86</v>
+      <c r="A294" s="3">
+        <v>43667</v>
+      </c>
+      <c r="B294" s="4">
+        <v>3169.51</v>
       </c>
       <c r="E294" s="1"/>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" s="3">
-        <v>43893</v>
-      </c>
-      <c r="B295" s="4">
-        <v>3512.17</v>
+      <c r="A295" s="1">
+        <v>43668</v>
+      </c>
+      <c r="B295" s="2">
+        <v>3169.51</v>
       </c>
       <c r="E295" s="3"/>
       <c r="F295" s="4"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B296" s="2">
-        <v>3455.56</v>
+      <c r="A296" s="3">
+        <v>43669</v>
+      </c>
+      <c r="B296" s="4">
+        <v>3177.76</v>
       </c>
       <c r="E296" s="1"/>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297" s="3">
-        <v>43895</v>
-      </c>
-      <c r="B297" s="4">
-        <v>3458.45</v>
+      <c r="A297" s="1">
+        <v>43670</v>
+      </c>
+      <c r="B297" s="2">
+        <v>3188.01</v>
       </c>
       <c r="E297" s="3"/>
       <c r="F297" s="4"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B298" s="2">
-        <v>3522.41</v>
+      <c r="A298" s="3">
+        <v>43671</v>
+      </c>
+      <c r="B298" s="4">
+        <v>3194.67</v>
       </c>
       <c r="E298" s="1"/>
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" s="3">
-        <v>43897</v>
-      </c>
-      <c r="B299" s="4">
-        <v>3584.58</v>
+      <c r="A299" s="1">
+        <v>43672</v>
+      </c>
+      <c r="B299" s="2">
+        <v>3213.09</v>
       </c>
       <c r="E299" s="3"/>
       <c r="F299" s="4"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B300" s="2">
-        <v>3803.6</v>
+      <c r="A300" s="3">
+        <v>43673</v>
+      </c>
+      <c r="B300" s="4">
+        <v>3233.26</v>
       </c>
       <c r="E300" s="1"/>
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="3">
-        <v>43901</v>
-      </c>
-      <c r="B301" s="4">
-        <v>3780.39</v>
+      <c r="A301" s="1">
+        <v>43674</v>
+      </c>
+      <c r="B301" s="2">
+        <v>3233.26</v>
       </c>
       <c r="E301" s="3"/>
       <c r="F301" s="4"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
-        <v>43902</v>
-      </c>
-      <c r="B302" s="2">
-        <v>3835.15</v>
+      <c r="A302" s="3">
+        <v>43675</v>
+      </c>
+      <c r="B302" s="4">
+        <v>3233.26</v>
       </c>
       <c r="E302" s="1"/>
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" s="3">
-        <v>43903</v>
-      </c>
-      <c r="B303" s="4">
-        <v>4034.66</v>
+      <c r="A303" s="1">
+        <v>43676</v>
+      </c>
+      <c r="B303" s="2">
+        <v>3262.81</v>
       </c>
       <c r="E303" s="3"/>
       <c r="F303" s="4"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" s="1">
-        <v>43904</v>
-      </c>
-      <c r="B304" s="2">
-        <v>3941.92</v>
+      <c r="A304" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B304" s="4">
+        <v>3296.85</v>
       </c>
       <c r="E304" s="1"/>
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="3">
-        <v>43907</v>
-      </c>
-      <c r="B305" s="4">
-        <v>4099.93</v>
+      <c r="A305" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B305" s="2">
+        <v>3291.79</v>
       </c>
       <c r="E305" s="3"/>
       <c r="F305" s="4"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="1">
-        <v>43908</v>
-      </c>
-      <c r="B306" s="2">
-        <v>4044.55</v>
+      <c r="A306" s="3">
+        <v>43679</v>
+      </c>
+      <c r="B306" s="4">
+        <v>3329.23</v>
       </c>
       <c r="E306" s="1"/>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" s="3">
-        <v>43909</v>
-      </c>
-      <c r="B307" s="4">
-        <v>4128.38</v>
+      <c r="A307" s="1">
+        <v>43680</v>
+      </c>
+      <c r="B307" s="2">
+        <v>3365.78</v>
       </c>
       <c r="E307" s="3"/>
       <c r="F307" s="4"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" s="1">
-        <v>43910</v>
-      </c>
-      <c r="B308" s="2">
-        <v>4153.91</v>
+      <c r="A308" s="3">
+        <v>43681</v>
+      </c>
+      <c r="B308" s="4">
+        <v>3365.78</v>
       </c>
       <c r="E308" s="1"/>
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A309" s="3">
-        <v>43911</v>
-      </c>
-      <c r="B309" s="4">
-        <v>4079.96</v>
+      <c r="A309" s="1">
+        <v>43682</v>
+      </c>
+      <c r="B309" s="2">
+        <v>3365.78</v>
       </c>
       <c r="E309" s="3"/>
       <c r="F309" s="4"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
-        <v>43915</v>
+        <v>43683</v>
       </c>
       <c r="B310" s="4">
-        <v>4104.8999999999996</v>
-      </c>
-      <c r="E310" s="3"/>
-      <c r="F310" s="4"/>
+        <v>3459.47</v>
+      </c>
+      <c r="E310" s="1"/>
+      <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>43916</v>
+        <v>43684</v>
       </c>
       <c r="B311" s="2">
-        <v>4086.34</v>
-      </c>
-      <c r="E311" s="1"/>
-      <c r="F311" s="2"/>
+        <v>3431.28</v>
+      </c>
+      <c r="E311" s="3"/>
+      <c r="F311" s="4"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
-        <v>43917</v>
+        <v>43685</v>
       </c>
       <c r="B312" s="4">
-        <v>3995.83</v>
-      </c>
-      <c r="E312" s="3"/>
-      <c r="F312" s="4"/>
+        <v>3431.28</v>
+      </c>
+      <c r="E312" s="1"/>
+      <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>43918</v>
+        <v>43686</v>
       </c>
       <c r="B313" s="2">
-        <v>4042.8</v>
-      </c>
-      <c r="E313" s="1"/>
-      <c r="F313" s="2"/>
+        <v>3394.61</v>
+      </c>
+      <c r="E313" s="3"/>
+      <c r="F313" s="4"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
-        <v>43921</v>
+        <v>43687</v>
       </c>
       <c r="B314" s="4">
-        <v>4064.81</v>
-      </c>
-      <c r="E314" s="3"/>
-      <c r="F314" s="4"/>
+        <v>3382.71</v>
+      </c>
+      <c r="E314" s="1"/>
+      <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>43922</v>
+        <v>43688</v>
       </c>
       <c r="B315" s="2">
-        <v>4054.54</v>
-      </c>
-      <c r="E315" s="1"/>
-      <c r="F315" s="2"/>
+        <v>3382.71</v>
+      </c>
+      <c r="E315" s="3"/>
+      <c r="F315" s="4"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
-        <v>43923</v>
+        <v>43689</v>
       </c>
       <c r="B316" s="4">
-        <v>4081.06</v>
-      </c>
-      <c r="E316" s="3"/>
-      <c r="F316" s="4"/>
+        <v>3382.71</v>
+      </c>
+      <c r="E316" s="1"/>
+      <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>43924</v>
+        <v>43690</v>
       </c>
       <c r="B317" s="2">
-        <v>4065.5</v>
-      </c>
-      <c r="E317" s="1"/>
-      <c r="F317" s="2"/>
+        <v>3436.26</v>
+      </c>
+      <c r="E317" s="3"/>
+      <c r="F317" s="4"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
-        <v>43925</v>
+        <v>43691</v>
       </c>
       <c r="B318" s="4">
-        <v>4008.78</v>
-      </c>
-      <c r="E318" s="3"/>
-      <c r="F318" s="4"/>
+        <v>3407.76</v>
+      </c>
+      <c r="E318" s="1"/>
+      <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>43928</v>
+        <v>43692</v>
       </c>
       <c r="B319" s="2">
-        <v>3978.38</v>
-      </c>
-      <c r="E319" s="1"/>
-      <c r="F319" s="2"/>
+        <v>3449.27</v>
+      </c>
+      <c r="E319" s="3"/>
+      <c r="F319" s="4"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
-        <v>43929</v>
+        <v>43693</v>
       </c>
       <c r="B320" s="4">
-        <v>3910.15</v>
-      </c>
-      <c r="E320" s="3"/>
-      <c r="F320" s="4"/>
+        <v>3447.76</v>
+      </c>
+      <c r="E320" s="1"/>
+      <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>43930</v>
+        <v>43694</v>
       </c>
       <c r="B321" s="2">
-        <v>3886.79</v>
-      </c>
-      <c r="E321" s="1"/>
-      <c r="F321" s="2"/>
+        <v>3441.4</v>
+      </c>
+      <c r="E321" s="3"/>
+      <c r="F321" s="4"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
-        <v>43935</v>
+        <v>43695</v>
       </c>
       <c r="B322" s="4">
-        <v>3870.31</v>
-      </c>
-      <c r="E322" s="3"/>
-      <c r="F322" s="4"/>
+        <v>3441.4</v>
+      </c>
+      <c r="E322" s="1"/>
+      <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>43936</v>
+        <v>43696</v>
       </c>
       <c r="B323" s="2">
-        <v>3858.21</v>
-      </c>
-      <c r="E323" s="1"/>
-      <c r="F323" s="2"/>
+        <v>3441.4</v>
+      </c>
+      <c r="E323" s="3"/>
+      <c r="F323" s="4"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
-        <v>43937</v>
+        <v>43697</v>
       </c>
       <c r="B324" s="4">
-        <v>3920.83</v>
-      </c>
-      <c r="E324" s="3"/>
-      <c r="F324" s="4"/>
+        <v>3441.4</v>
+      </c>
+      <c r="E324" s="1"/>
+      <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>43938</v>
+        <v>43698</v>
       </c>
       <c r="B325" s="2">
-        <v>3942.92</v>
-      </c>
-      <c r="E325" s="1"/>
-      <c r="F325" s="2"/>
+        <v>3420.99</v>
+      </c>
+      <c r="E325" s="3"/>
+      <c r="F325" s="4"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
-        <v>43939</v>
+        <v>43699</v>
       </c>
       <c r="B326" s="4">
-        <v>3973.06</v>
-      </c>
-      <c r="E326" s="3"/>
-      <c r="F326" s="4"/>
+        <v>3385.28</v>
+      </c>
+      <c r="E326" s="1"/>
+      <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>43942</v>
+        <v>43700</v>
       </c>
       <c r="B327" s="2">
-        <v>3967.76</v>
-      </c>
-      <c r="E327" s="1"/>
-      <c r="F327" s="2"/>
+        <v>3376.99</v>
+      </c>
+      <c r="E327" s="3"/>
+      <c r="F327" s="4"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
-        <v>43943</v>
+        <v>43701</v>
       </c>
       <c r="B328" s="4">
-        <v>4045.01</v>
-      </c>
-      <c r="E328" s="3"/>
-      <c r="F328" s="4"/>
+        <v>3399.95</v>
+      </c>
+      <c r="E328" s="1"/>
+      <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>43944</v>
+        <v>43702</v>
       </c>
       <c r="B329" s="2">
-        <v>4037.95</v>
-      </c>
-      <c r="E329" s="1"/>
-      <c r="F329" s="2"/>
+        <v>3399.95</v>
+      </c>
+      <c r="E329" s="3"/>
+      <c r="F329" s="4"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
-        <v>43945</v>
+        <v>43703</v>
       </c>
       <c r="B330" s="4">
-        <v>4020.94</v>
-      </c>
-      <c r="E330" s="3"/>
-      <c r="F330" s="4"/>
+        <v>3399.95</v>
+      </c>
+      <c r="E330" s="1"/>
+      <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>43946</v>
+        <v>43704</v>
       </c>
       <c r="B331" s="2">
-        <v>4039.87</v>
-      </c>
-      <c r="E331" s="1"/>
-      <c r="F331" s="2"/>
+        <v>3432.85</v>
+      </c>
+      <c r="E331" s="3"/>
+      <c r="F331" s="4"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
-        <v>43949</v>
+        <v>43705</v>
       </c>
       <c r="B332" s="4">
-        <v>4039.83</v>
-      </c>
-      <c r="E332" s="3"/>
-      <c r="F332" s="4"/>
+        <v>3457.89</v>
+      </c>
+      <c r="E332" s="1"/>
+      <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>43950</v>
+        <v>43706</v>
       </c>
       <c r="B333" s="2">
-        <v>4046.04</v>
-      </c>
-      <c r="E333" s="1"/>
-      <c r="F333" s="2"/>
+        <v>3477.53</v>
+      </c>
+      <c r="E333" s="3"/>
+      <c r="F333" s="4"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
-        <v>43951</v>
+        <v>43707</v>
       </c>
       <c r="B334" s="4">
-        <v>3983.29</v>
-      </c>
-      <c r="E334" s="3"/>
-      <c r="F334" s="4"/>
+        <v>3464.15</v>
+      </c>
+      <c r="E334" s="1"/>
+      <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>43952</v>
+        <v>43708</v>
       </c>
       <c r="B335" s="2">
-        <v>3932.72</v>
-      </c>
-      <c r="E335" s="1"/>
-      <c r="F335" s="2"/>
+        <v>3427.29</v>
+      </c>
+      <c r="E335" s="3"/>
+      <c r="F335" s="4"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336" s="1">
-        <v>43956</v>
-      </c>
-      <c r="B336" s="2">
-        <v>3990.1</v>
+      <c r="A336" s="3">
+        <v>43709</v>
+      </c>
+      <c r="B336" s="4">
+        <v>3427.29</v>
       </c>
       <c r="E336" s="1"/>
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="3">
-        <v>43957</v>
-      </c>
-      <c r="B337" s="4">
-        <v>3926.07</v>
+      <c r="A337" s="1">
+        <v>43710</v>
+      </c>
+      <c r="B337" s="2">
+        <v>3427.29</v>
       </c>
       <c r="E337" s="3"/>
       <c r="F337" s="4"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="1">
-        <v>43958</v>
-      </c>
-      <c r="B338" s="2">
-        <v>3961.66</v>
+      <c r="A338" s="3">
+        <v>43711</v>
+      </c>
+      <c r="B338" s="4">
+        <v>3427.29</v>
       </c>
       <c r="E338" s="1"/>
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="3">
-        <v>43959</v>
-      </c>
-      <c r="B339" s="4">
-        <v>3924.54</v>
+      <c r="A339" s="1">
+        <v>43712</v>
+      </c>
+      <c r="B339" s="2">
+        <v>3438.61</v>
       </c>
       <c r="E339" s="3"/>
       <c r="F339" s="4"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="1">
-        <v>43960</v>
-      </c>
-      <c r="B340" s="2">
-        <v>3882.27</v>
+      <c r="A340" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B340" s="4">
+        <v>3401.04</v>
       </c>
       <c r="E340" s="1"/>
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" s="3">
-        <v>43963</v>
-      </c>
-      <c r="B341" s="4">
-        <v>3901.34</v>
+      <c r="A341" s="1">
+        <v>43714</v>
+      </c>
+      <c r="B341" s="2">
+        <v>3377.39</v>
       </c>
       <c r="E341" s="3"/>
       <c r="F341" s="4"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342" s="1">
-        <v>43964</v>
-      </c>
-      <c r="B342" s="2">
-        <v>3880.48</v>
+      <c r="A342" s="3">
+        <v>43715</v>
+      </c>
+      <c r="B342" s="4">
+        <v>3361.7</v>
       </c>
       <c r="E342" s="1"/>
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="3">
-        <v>43965</v>
-      </c>
-      <c r="B343" s="4">
-        <v>3901.3</v>
+      <c r="A343" s="1">
+        <v>43716</v>
+      </c>
+      <c r="B343" s="2">
+        <v>3361.7</v>
       </c>
       <c r="E343" s="3"/>
       <c r="F343" s="4"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="1">
-        <v>43966</v>
-      </c>
-      <c r="B344" s="2">
-        <v>3947.79</v>
+      <c r="A344" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B344" s="4">
+        <v>3361.7</v>
       </c>
       <c r="E344" s="1"/>
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A345" s="3">
-        <v>43967</v>
-      </c>
-      <c r="B345" s="4">
-        <v>3926.06</v>
+      <c r="A345" s="1">
+        <v>43718</v>
+      </c>
+      <c r="B345" s="2">
+        <v>3368.8</v>
       </c>
       <c r="E345" s="3"/>
       <c r="F345" s="4"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A346" s="1">
-        <v>43970</v>
-      </c>
-      <c r="B346" s="2">
-        <v>3851.07</v>
+      <c r="A346" s="3">
+        <v>43719</v>
+      </c>
+      <c r="B346" s="4">
+        <v>3373.75</v>
       </c>
       <c r="E346" s="1"/>
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" s="3">
-        <v>43971</v>
-      </c>
-      <c r="B347" s="4">
-        <v>3824.3</v>
+      <c r="A347" s="1">
+        <v>43720</v>
+      </c>
+      <c r="B347" s="2">
+        <v>3372.48</v>
       </c>
       <c r="E347" s="3"/>
       <c r="F347" s="4"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348" s="1">
-        <v>43972</v>
-      </c>
-      <c r="B348" s="2">
-        <v>3804.12</v>
+      <c r="A348" s="3">
+        <v>43721</v>
+      </c>
+      <c r="B348" s="4">
+        <v>3359.2</v>
       </c>
       <c r="E348" s="1"/>
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A349" s="3">
-        <v>43973</v>
-      </c>
-      <c r="B349" s="4">
-        <v>3774.25</v>
+      <c r="A349" s="1">
+        <v>43722</v>
+      </c>
+      <c r="B349" s="2">
+        <v>3356.15</v>
       </c>
       <c r="E349" s="3"/>
       <c r="F349" s="4"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A350" s="1">
-        <v>43974</v>
-      </c>
-      <c r="B350" s="2">
-        <v>3782.66</v>
+      <c r="A350" s="3">
+        <v>43723</v>
+      </c>
+      <c r="B350" s="4">
+        <v>3356.15</v>
       </c>
       <c r="E350" s="1"/>
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>43978</v>
+        <v>43724</v>
       </c>
       <c r="B351" s="2">
-        <v>3725.56</v>
-      </c>
-      <c r="E351" s="1"/>
-      <c r="F351" s="2"/>
+        <v>3356.15</v>
+      </c>
+      <c r="E351" s="3"/>
+      <c r="F351" s="4"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
-        <v>43979</v>
+        <v>43725</v>
       </c>
       <c r="B352" s="4">
-        <v>3743.79</v>
-      </c>
-      <c r="E352" s="3"/>
-      <c r="F352" s="4"/>
+        <v>3364.43</v>
+      </c>
+      <c r="E352" s="1"/>
+      <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>43980</v>
+        <v>43726</v>
       </c>
       <c r="B353" s="2">
-        <v>3723.42</v>
-      </c>
-      <c r="E353" s="1"/>
-      <c r="F353" s="2"/>
+        <v>3380.92</v>
+      </c>
+      <c r="E353" s="3"/>
+      <c r="F353" s="4"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
-        <v>43981</v>
+        <v>43727</v>
       </c>
       <c r="B354" s="4">
-        <v>3718.82</v>
-      </c>
-      <c r="E354" s="3"/>
-      <c r="F354" s="4"/>
+        <v>3377.79</v>
+      </c>
+      <c r="E354" s="1"/>
+      <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>43984</v>
+        <v>43728</v>
       </c>
       <c r="B355" s="2">
-        <v>3716.35</v>
-      </c>
-      <c r="E355" s="1"/>
-      <c r="F355" s="2"/>
+        <v>3377.72</v>
+      </c>
+      <c r="E355" s="3"/>
+      <c r="F355" s="4"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
-        <v>43985</v>
+        <v>43729</v>
       </c>
       <c r="B356" s="4">
-        <v>3651.42</v>
-      </c>
-      <c r="E356" s="3"/>
-      <c r="F356" s="4"/>
+        <v>3402.32</v>
+      </c>
+      <c r="E356" s="1"/>
+      <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>43986</v>
+        <v>43730</v>
       </c>
       <c r="B357" s="2">
-        <v>3588.89</v>
-      </c>
-      <c r="E357" s="1"/>
-      <c r="F357" s="2"/>
+        <v>3402.32</v>
+      </c>
+      <c r="E357" s="3"/>
+      <c r="F357" s="4"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
-        <v>43987</v>
+        <v>43731</v>
       </c>
       <c r="B358" s="4">
-        <v>3597.47</v>
-      </c>
-      <c r="E358" s="3"/>
-      <c r="F358" s="4"/>
+        <v>3402.32</v>
+      </c>
+      <c r="E358" s="1"/>
+      <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>43988</v>
+        <v>43732</v>
       </c>
       <c r="B359" s="2">
-        <v>3565.06</v>
-      </c>
-      <c r="E359" s="1"/>
-      <c r="F359" s="2"/>
+        <v>3437.78</v>
+      </c>
+      <c r="E359" s="3"/>
+      <c r="F359" s="4"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
-        <v>43991</v>
+        <v>43733</v>
       </c>
       <c r="B360" s="4">
-        <v>3599</v>
-      </c>
-      <c r="E360" s="3"/>
-      <c r="F360" s="4"/>
+        <v>3438.66</v>
+      </c>
+      <c r="E360" s="1"/>
+      <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>43992</v>
+        <v>43734</v>
       </c>
       <c r="B361" s="2">
-        <v>3643.02</v>
-      </c>
-      <c r="E361" s="1"/>
-      <c r="F361" s="2"/>
+        <v>3451.02</v>
+      </c>
+      <c r="E361" s="3"/>
+      <c r="F361" s="4"/>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
-        <v>43993</v>
+        <v>43735</v>
       </c>
       <c r="B362" s="4">
-        <v>3674.81</v>
-      </c>
-      <c r="E362" s="3"/>
-      <c r="F362" s="4"/>
+        <v>3435.71</v>
+      </c>
+      <c r="E362" s="1"/>
+      <c r="F362" s="2"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>43994</v>
+        <v>43736</v>
       </c>
       <c r="B363" s="2">
-        <v>3746.46</v>
-      </c>
-      <c r="E363" s="1"/>
-      <c r="F363" s="2"/>
+        <v>3462.01</v>
+      </c>
+      <c r="E363" s="3"/>
+      <c r="F363" s="4"/>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
-        <v>43995</v>
+        <v>43737</v>
       </c>
       <c r="B364" s="4">
-        <v>3758.15</v>
-      </c>
-      <c r="E364" s="3"/>
-      <c r="F364" s="4"/>
+        <v>3462.01</v>
+      </c>
+      <c r="E364" s="1"/>
+      <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A365" s="3">
-        <v>43999</v>
-      </c>
-      <c r="B365" s="4">
-        <v>3741.88</v>
+      <c r="A365" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B365" s="2">
+        <v>3462.01</v>
       </c>
       <c r="E365" s="3"/>
       <c r="F365" s="4"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A366" s="1">
-        <v>44000</v>
-      </c>
-      <c r="B366" s="2">
-        <v>3749.03</v>
+      <c r="A366" s="3">
+        <v>43739</v>
+      </c>
+      <c r="B366" s="4">
+        <v>3477.45</v>
       </c>
       <c r="E366" s="1"/>
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A367" s="3">
-        <v>44001</v>
-      </c>
-      <c r="B367" s="4">
-        <v>3760.22</v>
+      <c r="A367" s="1">
+        <v>43740</v>
+      </c>
+      <c r="B367" s="2">
+        <v>3491.29</v>
       </c>
       <c r="E367" s="3"/>
       <c r="F367" s="4"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A368" s="1">
-        <v>44002</v>
-      </c>
-      <c r="B368" s="2">
-        <v>3733.27</v>
+      <c r="A368" s="3">
+        <v>43741</v>
+      </c>
+      <c r="B368" s="4">
+        <v>3497.34</v>
       </c>
       <c r="E368" s="1"/>
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>44006</v>
+        <v>43742</v>
       </c>
       <c r="B369" s="2">
-        <v>3706.06</v>
-      </c>
-      <c r="E369" s="1"/>
-      <c r="F369" s="2"/>
+        <v>3467.6</v>
+      </c>
+      <c r="E369" s="3"/>
+      <c r="F369" s="4"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
-        <v>44007</v>
+        <v>43743</v>
       </c>
       <c r="B370" s="4">
-        <v>3722.27</v>
-      </c>
-      <c r="E370" s="3"/>
-      <c r="F370" s="4"/>
+        <v>3430.28</v>
+      </c>
+      <c r="E370" s="1"/>
+      <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>44008</v>
+        <v>43744</v>
       </c>
       <c r="B371" s="2">
-        <v>3735.93</v>
-      </c>
-      <c r="E371" s="1"/>
-      <c r="F371" s="2"/>
+        <v>3430.28</v>
+      </c>
+      <c r="E371" s="3"/>
+      <c r="F371" s="4"/>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
-        <v>44009</v>
+        <v>43745</v>
       </c>
       <c r="B372" s="4">
-        <v>3758.91</v>
-      </c>
-      <c r="E372" s="3"/>
-      <c r="F372" s="4"/>
+        <v>3430.28</v>
+      </c>
+      <c r="E372" s="1"/>
+      <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A373" s="3">
-        <v>44013</v>
-      </c>
-      <c r="B373" s="4">
-        <v>3756.28</v>
+      <c r="A373" s="1">
+        <v>43746</v>
+      </c>
+      <c r="B373" s="2">
+        <v>3445.76</v>
       </c>
       <c r="E373" s="3"/>
       <c r="F373" s="4"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A374" s="1">
-        <v>44014</v>
-      </c>
-      <c r="B374" s="2">
-        <v>3723.67</v>
+      <c r="A374" s="3">
+        <v>43747</v>
+      </c>
+      <c r="B374" s="4">
+        <v>3452.57</v>
       </c>
       <c r="E374" s="1"/>
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A375" s="3">
-        <v>44015</v>
-      </c>
-      <c r="B375" s="4">
-        <v>3660.18</v>
+      <c r="A375" s="1">
+        <v>43748</v>
+      </c>
+      <c r="B375" s="2">
+        <v>3454.56</v>
       </c>
       <c r="E375" s="3"/>
       <c r="F375" s="4"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A376" s="1">
-        <v>44016</v>
-      </c>
-      <c r="B376" s="2">
-        <v>3645.9</v>
+      <c r="A376" s="3">
+        <v>43749</v>
+      </c>
+      <c r="B376" s="4">
+        <v>3458.42</v>
       </c>
       <c r="E376" s="1"/>
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A377" s="3">
-        <v>44019</v>
-      </c>
-      <c r="B377" s="4">
-        <v>3633.32</v>
+      <c r="A377" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B377" s="2">
+        <v>3431.46</v>
       </c>
       <c r="E377" s="3"/>
       <c r="F377" s="4"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A378" s="1">
-        <v>44020</v>
-      </c>
-      <c r="B378" s="2">
-        <v>3631.54</v>
+      <c r="A378" s="3">
+        <v>43751</v>
+      </c>
+      <c r="B378" s="4">
+        <v>3431.46</v>
       </c>
       <c r="E378" s="1"/>
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A379" s="3">
-        <v>44021</v>
-      </c>
-      <c r="B379" s="4">
-        <v>3625.61</v>
+      <c r="A379" s="1">
+        <v>43752</v>
+      </c>
+      <c r="B379" s="2">
+        <v>3431.46</v>
       </c>
       <c r="E379" s="3"/>
       <c r="F379" s="4"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A380" s="1">
-        <v>44022</v>
-      </c>
-      <c r="B380" s="2">
-        <v>3633.42</v>
+      <c r="A380" s="3">
+        <v>43753</v>
+      </c>
+      <c r="B380" s="4">
+        <v>3431.46</v>
       </c>
       <c r="E380" s="1"/>
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A381" s="3">
-        <v>44023</v>
-      </c>
-      <c r="B381" s="4">
-        <v>3615.75</v>
+      <c r="A381" s="1">
+        <v>43754</v>
+      </c>
+      <c r="B381" s="2">
+        <v>3451.33</v>
       </c>
       <c r="E381" s="3"/>
       <c r="F381" s="4"/>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A382" s="1">
-        <v>44026</v>
-      </c>
-      <c r="B382" s="2">
-        <v>3617.22</v>
+      <c r="A382" s="3">
+        <v>43755</v>
+      </c>
+      <c r="B382" s="4">
+        <v>3459.55</v>
       </c>
       <c r="E382" s="1"/>
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A383" s="3">
-        <v>44027</v>
-      </c>
-      <c r="B383" s="4">
-        <v>3638.22</v>
+      <c r="A383" s="1">
+        <v>43756</v>
+      </c>
+      <c r="B383" s="2">
+        <v>3465.35</v>
       </c>
       <c r="E383" s="3"/>
       <c r="F383" s="4"/>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A384" s="1">
-        <v>44028</v>
-      </c>
-      <c r="B384" s="2">
-        <v>3611.61</v>
+      <c r="A384" s="3">
+        <v>43757</v>
+      </c>
+      <c r="B384" s="4">
+        <v>3428.63</v>
       </c>
       <c r="E384" s="1"/>
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A385" s="3">
-        <v>44029</v>
-      </c>
-      <c r="B385" s="4">
-        <v>3627.86</v>
+      <c r="A385" s="1">
+        <v>43758</v>
+      </c>
+      <c r="B385" s="2">
+        <v>3428.63</v>
       </c>
       <c r="E385" s="3"/>
       <c r="F385" s="4"/>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A386" s="1">
-        <v>44030</v>
-      </c>
-      <c r="B386" s="2">
-        <v>3651.93</v>
+      <c r="A386" s="3">
+        <v>43759</v>
+      </c>
+      <c r="B386" s="4">
+        <v>3428.63</v>
       </c>
       <c r="E386" s="1"/>
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>44034</v>
+        <v>43760</v>
       </c>
       <c r="B387" s="2">
-        <v>3628.2</v>
-      </c>
-      <c r="E387" s="1"/>
-      <c r="F387" s="2"/>
+        <v>3442.78</v>
+      </c>
+      <c r="E387" s="3"/>
+      <c r="F387" s="4"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
-        <v>44035</v>
+        <v>43761</v>
       </c>
       <c r="B388" s="4">
-        <v>3627.28</v>
-      </c>
-      <c r="E388" s="3"/>
-      <c r="F388" s="4"/>
+        <v>3430.3</v>
+      </c>
+      <c r="E388" s="1"/>
+      <c r="F388" s="2"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>44036</v>
+        <v>43762</v>
       </c>
       <c r="B389" s="2">
-        <v>3660.15</v>
-      </c>
-      <c r="E389" s="1"/>
-      <c r="F389" s="2"/>
+        <v>3409.29</v>
+      </c>
+      <c r="E389" s="3"/>
+      <c r="F389" s="4"/>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="3">
-        <v>44037</v>
+        <v>43763</v>
       </c>
       <c r="B390" s="4">
-        <v>3690.8</v>
-      </c>
-      <c r="E390" s="3"/>
-      <c r="F390" s="4"/>
+        <v>3387.72</v>
+      </c>
+      <c r="E390" s="1"/>
+      <c r="F390" s="2"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>44040</v>
+        <v>43764</v>
       </c>
       <c r="B391" s="2">
-        <v>3679.17</v>
-      </c>
-      <c r="E391" s="1"/>
-      <c r="F391" s="2"/>
+        <v>3395.25</v>
+      </c>
+      <c r="E391" s="3"/>
+      <c r="F391" s="4"/>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="3">
-        <v>44041</v>
+        <v>43765</v>
       </c>
       <c r="B392" s="4">
-        <v>3718.69</v>
-      </c>
-      <c r="E392" s="3"/>
-      <c r="F392" s="4"/>
+        <v>3395.25</v>
+      </c>
+      <c r="E392" s="1"/>
+      <c r="F392" s="2"/>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>44042</v>
+        <v>43766</v>
       </c>
       <c r="B393" s="2">
-        <v>3716.89</v>
-      </c>
-      <c r="E393" s="1"/>
-      <c r="F393" s="2"/>
+        <v>3395.25</v>
+      </c>
+      <c r="E393" s="3"/>
+      <c r="F393" s="4"/>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="3">
-        <v>44043</v>
+        <v>43767</v>
       </c>
       <c r="B394" s="4">
-        <v>3739.49</v>
-      </c>
-      <c r="E394" s="3"/>
-      <c r="F394" s="4"/>
+        <v>3382.19</v>
+      </c>
+      <c r="E394" s="1"/>
+      <c r="F394" s="2"/>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>44044</v>
+        <v>43768</v>
       </c>
       <c r="B395" s="2">
-        <v>3733.08</v>
-      </c>
-      <c r="E395" s="1"/>
-      <c r="F395" s="2"/>
+        <v>3380.9</v>
+      </c>
+      <c r="E395" s="3"/>
+      <c r="F395" s="4"/>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
-        <v>44047</v>
+        <v>43769</v>
       </c>
       <c r="B396" s="4">
-        <v>3768.39</v>
-      </c>
-      <c r="E396" s="3"/>
-      <c r="F396" s="4"/>
+        <v>3389.94</v>
+      </c>
+      <c r="E396" s="1"/>
+      <c r="F396" s="2"/>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>44048</v>
+        <v>43770</v>
       </c>
       <c r="B397" s="2">
-        <v>3792.98</v>
-      </c>
-      <c r="E397" s="1"/>
-      <c r="F397" s="2"/>
+        <v>3383.29</v>
+      </c>
+      <c r="E397" s="3"/>
+      <c r="F397" s="4"/>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
-        <v>44049</v>
+        <v>43771</v>
       </c>
       <c r="B398" s="4">
-        <v>3775.95</v>
-      </c>
-      <c r="E398" s="3"/>
-      <c r="F398" s="4"/>
+        <v>3339.19</v>
+      </c>
+      <c r="E398" s="1"/>
+      <c r="F398" s="2"/>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>44050</v>
+        <v>43772</v>
       </c>
       <c r="B399" s="2">
-        <v>3769.67</v>
-      </c>
-      <c r="E399" s="1"/>
-      <c r="F399" s="2"/>
+        <v>3339.19</v>
+      </c>
+      <c r="E399" s="3"/>
+      <c r="F399" s="4"/>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A400" s="1">
-        <v>44054</v>
-      </c>
-      <c r="B400" s="2">
-        <v>3770.22</v>
+      <c r="A400" s="3">
+        <v>43773</v>
+      </c>
+      <c r="B400" s="4">
+        <v>3339.19</v>
       </c>
       <c r="E400" s="1"/>
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A401" s="3">
-        <v>44055</v>
-      </c>
-      <c r="B401" s="4">
-        <v>3749.3</v>
+      <c r="A401" s="1">
+        <v>43774</v>
+      </c>
+      <c r="B401" s="2">
+        <v>3339.19</v>
       </c>
       <c r="E401" s="3"/>
       <c r="F401" s="4"/>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A402" s="1">
-        <v>44056</v>
-      </c>
-      <c r="B402" s="2">
-        <v>3755.61</v>
+      <c r="A402" s="3">
+        <v>43775</v>
+      </c>
+      <c r="B402" s="4">
+        <v>3318.47</v>
       </c>
       <c r="E402" s="1"/>
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A403" s="3">
-        <v>44057</v>
-      </c>
-      <c r="B403" s="4">
-        <v>3767.05</v>
+      <c r="A403" s="1">
+        <v>43776</v>
+      </c>
+      <c r="B403" s="2">
+        <v>3319.64</v>
       </c>
       <c r="E403" s="3"/>
       <c r="F403" s="4"/>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A404" s="1">
-        <v>44058</v>
-      </c>
-      <c r="B404" s="2">
-        <v>3783.15</v>
+      <c r="A404" s="3">
+        <v>43777</v>
+      </c>
+      <c r="B404" s="4">
+        <v>3327.02</v>
       </c>
       <c r="E404" s="1"/>
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <v>44062</v>
+        <v>43778</v>
       </c>
       <c r="B405" s="2">
-        <v>3784.15</v>
-      </c>
-      <c r="E405" s="1"/>
-      <c r="F405" s="2"/>
+        <v>3341.01</v>
+      </c>
+      <c r="E405" s="3"/>
+      <c r="F405" s="4"/>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="3">
-        <v>44063</v>
+        <v>43779</v>
       </c>
       <c r="B406" s="4">
-        <v>3766.73</v>
-      </c>
-      <c r="E406" s="3"/>
-      <c r="F406" s="4"/>
+        <v>3341.01</v>
+      </c>
+      <c r="E406" s="1"/>
+      <c r="F406" s="2"/>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>44064</v>
+        <v>43780</v>
       </c>
       <c r="B407" s="2">
-        <v>3792.13</v>
-      </c>
-      <c r="E407" s="1"/>
-      <c r="F407" s="2"/>
+        <v>3341.01</v>
+      </c>
+      <c r="E407" s="3"/>
+      <c r="F407" s="4"/>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
-        <v>44065</v>
+        <v>43781</v>
       </c>
       <c r="B408" s="4">
-        <v>3827.27</v>
-      </c>
-      <c r="E408" s="3"/>
-      <c r="F408" s="4"/>
+        <v>3341.01</v>
+      </c>
+      <c r="E408" s="1"/>
+      <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>44068</v>
+        <v>43782</v>
       </c>
       <c r="B409" s="2">
-        <v>3843.69</v>
-      </c>
-      <c r="E409" s="1"/>
-      <c r="F409" s="2"/>
+        <v>3384.21</v>
+      </c>
+      <c r="E409" s="3"/>
+      <c r="F409" s="4"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
-        <v>44069</v>
+        <v>43783</v>
       </c>
       <c r="B410" s="4">
-        <v>3867.32</v>
-      </c>
-      <c r="E410" s="3"/>
-      <c r="F410" s="4"/>
+        <v>3441.89</v>
+      </c>
+      <c r="E410" s="1"/>
+      <c r="F410" s="2"/>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>44070</v>
+        <v>43784</v>
       </c>
       <c r="B411" s="2">
-        <v>3846.64</v>
-      </c>
-      <c r="E411" s="1"/>
-      <c r="F411" s="2"/>
+        <v>3452.67</v>
+      </c>
+      <c r="E411" s="3"/>
+      <c r="F411" s="4"/>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="3">
-        <v>44071</v>
+        <v>43785</v>
       </c>
       <c r="B412" s="4">
-        <v>3820.17</v>
-      </c>
-      <c r="E412" s="3"/>
-      <c r="F412" s="4"/>
+        <v>3421.26</v>
+      </c>
+      <c r="E412" s="1"/>
+      <c r="F412" s="2"/>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>44072</v>
+        <v>43786</v>
       </c>
       <c r="B413" s="2">
-        <v>3760.38</v>
-      </c>
-      <c r="E413" s="1"/>
-      <c r="F413" s="2"/>
+        <v>3421.26</v>
+      </c>
+      <c r="E413" s="3"/>
+      <c r="F413" s="4"/>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="3">
-        <v>44075</v>
+        <v>43787</v>
       </c>
       <c r="B414" s="4">
-        <v>3745.41</v>
-      </c>
-      <c r="E414" s="3"/>
-      <c r="F414" s="4"/>
+        <v>3421.26</v>
+      </c>
+      <c r="E414" s="1"/>
+      <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>44076</v>
+        <v>43788</v>
       </c>
       <c r="B415" s="2">
-        <v>3683.28</v>
-      </c>
-      <c r="E415" s="1"/>
-      <c r="F415" s="2"/>
+        <v>3447.74</v>
+      </c>
+      <c r="E415" s="3"/>
+      <c r="F415" s="4"/>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="3">
-        <v>44077</v>
+        <v>43789</v>
       </c>
       <c r="B416" s="4">
-        <v>3653.7</v>
-      </c>
-      <c r="E416" s="3"/>
-      <c r="F416" s="4"/>
+        <v>3434.49</v>
+      </c>
+      <c r="E416" s="1"/>
+      <c r="F416" s="2"/>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>44078</v>
+        <v>43790</v>
       </c>
       <c r="B417" s="2">
-        <v>3653.23</v>
-      </c>
-      <c r="E417" s="1"/>
-      <c r="F417" s="2"/>
+        <v>3445.95</v>
+      </c>
+      <c r="E417" s="3"/>
+      <c r="F417" s="4"/>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="3">
-        <v>44079</v>
+        <v>43791</v>
       </c>
       <c r="B418" s="4">
-        <v>3702.62</v>
-      </c>
-      <c r="E418" s="3"/>
-      <c r="F418" s="4"/>
+        <v>3440.66</v>
+      </c>
+      <c r="E418" s="1"/>
+      <c r="F418" s="2"/>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A419" s="3">
-        <v>44083</v>
-      </c>
-      <c r="B419" s="4">
-        <v>3757.21</v>
+      <c r="A419" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B419" s="2">
+        <v>3410.77</v>
       </c>
       <c r="E419" s="3"/>
       <c r="F419" s="4"/>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A420" s="1">
-        <v>44084</v>
-      </c>
-      <c r="B420" s="2">
-        <v>3717.25</v>
+      <c r="A420" s="3">
+        <v>43793</v>
+      </c>
+      <c r="B420" s="4">
+        <v>3410.77</v>
       </c>
       <c r="E420" s="1"/>
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A421" s="3">
-        <v>44085</v>
-      </c>
-      <c r="B421" s="4">
-        <v>3700.28</v>
+      <c r="A421" s="1">
+        <v>43794</v>
+      </c>
+      <c r="B421" s="2">
+        <v>3410.77</v>
       </c>
       <c r="E421" s="3"/>
       <c r="F421" s="4"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A422" s="1">
-        <v>44086</v>
-      </c>
-      <c r="B422" s="2">
-        <v>3709</v>
+      <c r="A422" s="3">
+        <v>43795</v>
+      </c>
+      <c r="B422" s="4">
+        <v>3433.94</v>
       </c>
       <c r="E422" s="1"/>
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A423" s="3">
-        <v>44089</v>
-      </c>
-      <c r="B423" s="4">
-        <v>3697</v>
+      <c r="A423" s="1">
+        <v>43796</v>
+      </c>
+      <c r="B423" s="2">
+        <v>3469.01</v>
       </c>
       <c r="E423" s="3"/>
       <c r="F423" s="4"/>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A424" s="1">
-        <v>44090</v>
-      </c>
-      <c r="B424" s="2">
-        <v>3683.49</v>
+      <c r="A424" s="3">
+        <v>43797</v>
+      </c>
+      <c r="B424" s="4">
+        <v>3502.92</v>
       </c>
       <c r="E424" s="1"/>
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A425" s="3">
-        <v>44091</v>
-      </c>
-      <c r="B425" s="4">
-        <v>3703.86</v>
+      <c r="A425" s="1">
+        <v>43798</v>
+      </c>
+      <c r="B425" s="2">
+        <v>3502.92</v>
       </c>
       <c r="E425" s="3"/>
       <c r="F425" s="4"/>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A426" s="1">
-        <v>44092</v>
-      </c>
-      <c r="B426" s="2">
-        <v>3714.65</v>
+      <c r="A426" s="3">
+        <v>43799</v>
+      </c>
+      <c r="B426" s="4">
+        <v>3522.48</v>
       </c>
       <c r="E426" s="1"/>
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A427" s="3">
-        <v>44093</v>
-      </c>
-      <c r="B427" s="4">
-        <v>3725.37</v>
+      <c r="A427" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B427" s="2">
+        <v>3522.48</v>
       </c>
       <c r="E427" s="3"/>
       <c r="F427" s="4"/>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A428" s="1">
-        <v>44096</v>
-      </c>
-      <c r="B428" s="2">
-        <v>3790.54</v>
+      <c r="A428" s="3">
+        <v>43801</v>
+      </c>
+      <c r="B428" s="4">
+        <v>3522.48</v>
       </c>
       <c r="E428" s="1"/>
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A429" s="3">
-        <v>44097</v>
-      </c>
-      <c r="B429" s="4">
-        <v>3813.3</v>
+      <c r="A429" s="1">
+        <v>43802</v>
+      </c>
+      <c r="B429" s="2">
+        <v>3508.39</v>
       </c>
       <c r="E429" s="3"/>
       <c r="F429" s="4"/>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A430" s="1">
-        <v>44098</v>
-      </c>
-      <c r="B430" s="2">
-        <v>3863.6</v>
+      <c r="A430" s="3">
+        <v>43803</v>
+      </c>
+      <c r="B430" s="4">
+        <v>3506.67</v>
       </c>
       <c r="E430" s="1"/>
       <c r="F430" s="2"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A431" s="3">
-        <v>44099</v>
-      </c>
-      <c r="B431" s="4">
-        <v>3873.8</v>
+      <c r="A431" s="1">
+        <v>43804</v>
+      </c>
+      <c r="B431" s="2">
+        <v>3478.57</v>
       </c>
       <c r="E431" s="3"/>
       <c r="F431" s="4"/>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A432" s="1">
-        <v>44100</v>
-      </c>
-      <c r="B432" s="2">
-        <v>3867.81</v>
+      <c r="A432" s="3">
+        <v>43805</v>
+      </c>
+      <c r="B432" s="4">
+        <v>3459.97</v>
       </c>
       <c r="E432" s="1"/>
       <c r="F432" s="2"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A433" s="3">
-        <v>44103</v>
-      </c>
-      <c r="B433" s="4">
-        <v>3859.9</v>
+      <c r="A433" s="1">
+        <v>43806</v>
+      </c>
+      <c r="B433" s="2">
+        <v>3430.31</v>
       </c>
       <c r="E433" s="3"/>
       <c r="F433" s="4"/>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A434" s="1">
-        <v>44104</v>
-      </c>
-      <c r="B434" s="2">
-        <v>3878.94</v>
+      <c r="A434" s="3">
+        <v>43807</v>
+      </c>
+      <c r="B434" s="4">
+        <v>3430.31</v>
       </c>
       <c r="E434" s="1"/>
       <c r="F434" s="2"/>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A435" s="3">
-        <v>44105</v>
-      </c>
-      <c r="B435" s="4">
-        <v>3865.47</v>
+      <c r="A435" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B435" s="2">
+        <v>3430.31</v>
       </c>
       <c r="E435" s="3"/>
       <c r="F435" s="4"/>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A436" s="1">
-        <v>44106</v>
-      </c>
-      <c r="B436" s="2">
-        <v>3842.34</v>
+      <c r="A436" s="3">
+        <v>43809</v>
+      </c>
+      <c r="B436" s="4">
+        <v>3418.48</v>
       </c>
       <c r="E436" s="1"/>
       <c r="F436" s="2"/>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>43810</v>
+      </c>
+      <c r="B437" s="2">
+        <v>3418.61</v>
+      </c>
+      <c r="E437" s="3"/>
+      <c r="F437" s="4"/>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A438" s="3">
+        <v>43811</v>
+      </c>
+      <c r="B438" s="4">
+        <v>3387.73</v>
+      </c>
+      <c r="E438" s="1"/>
+      <c r="F438" s="2"/>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>43812</v>
+      </c>
+      <c r="B439" s="2">
+        <v>3372.23</v>
+      </c>
+      <c r="E439" s="3"/>
+      <c r="F439" s="4"/>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A440" s="3">
+        <v>43813</v>
+      </c>
+      <c r="B440" s="4">
+        <v>3374.29</v>
+      </c>
+      <c r="E440" s="1"/>
+      <c r="F440" s="2"/>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>43814</v>
+      </c>
+      <c r="B441" s="2">
+        <v>3374.29</v>
+      </c>
+      <c r="E441" s="3"/>
+      <c r="F441" s="4"/>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A442" s="3">
+        <v>43815</v>
+      </c>
+      <c r="B442" s="4">
+        <v>3374.29</v>
+      </c>
+      <c r="E442" s="1"/>
+      <c r="F442" s="2"/>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B443" s="2">
+        <v>3364.24</v>
+      </c>
+      <c r="E443" s="3"/>
+      <c r="F443" s="4"/>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A444" s="3">
+        <v>43817</v>
+      </c>
+      <c r="B444" s="4">
+        <v>3347.86</v>
+      </c>
+      <c r="E444" s="1"/>
+      <c r="F444" s="2"/>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>43818</v>
+      </c>
+      <c r="B445" s="2">
+        <v>3329.98</v>
+      </c>
+      <c r="E445" s="3"/>
+      <c r="F445" s="4"/>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A446" s="3">
+        <v>43819</v>
+      </c>
+      <c r="B446" s="4">
+        <v>3322.38</v>
+      </c>
+      <c r="E446" s="1"/>
+      <c r="F446" s="2"/>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B447" s="2">
+        <v>3325.47</v>
+      </c>
+      <c r="E447" s="3"/>
+      <c r="F447" s="4"/>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A448" s="3">
+        <v>43821</v>
+      </c>
+      <c r="B448" s="4">
+        <v>3325.47</v>
+      </c>
+      <c r="E448" s="1"/>
+      <c r="F448" s="2"/>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>43822</v>
+      </c>
+      <c r="B449" s="2">
+        <v>3325.47</v>
+      </c>
+      <c r="E449" s="3"/>
+      <c r="F449" s="4"/>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A450" s="3">
+        <v>43823</v>
+      </c>
+      <c r="B450" s="4">
+        <v>3316.92</v>
+      </c>
+      <c r="E450" s="1"/>
+      <c r="F450" s="2"/>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>43824</v>
+      </c>
+      <c r="B451" s="2">
+        <v>3305.84</v>
+      </c>
+      <c r="E451" s="3"/>
+      <c r="F451" s="4"/>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A452" s="3">
+        <v>43825</v>
+      </c>
+      <c r="B452" s="4">
+        <v>3305.84</v>
+      </c>
+      <c r="E452" s="1"/>
+      <c r="F452" s="2"/>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>43826</v>
+      </c>
+      <c r="B453" s="2">
+        <v>3281.4</v>
+      </c>
+      <c r="E453" s="3"/>
+      <c r="F453" s="4"/>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A454" s="3">
+        <v>43827</v>
+      </c>
+      <c r="B454" s="4">
+        <v>3294.05</v>
+      </c>
+      <c r="E454" s="1"/>
+      <c r="F454" s="2"/>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B455" s="2">
+        <v>3294.05</v>
+      </c>
+      <c r="E455" s="3"/>
+      <c r="F455" s="4"/>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A456" s="3">
+        <v>43829</v>
+      </c>
+      <c r="B456" s="4">
+        <v>3294.05</v>
+      </c>
+      <c r="E456" s="1"/>
+      <c r="F456" s="2"/>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B457" s="2">
+        <v>3277.14</v>
+      </c>
+      <c r="E457" s="3"/>
+      <c r="F457" s="4"/>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A458" s="3">
+        <v>43831</v>
+      </c>
+      <c r="B458" s="4">
+        <v>3277.14</v>
+      </c>
+      <c r="E458" s="1"/>
+      <c r="F458" s="2"/>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B459" s="2">
+        <v>3277.14</v>
+      </c>
+      <c r="E459" s="3"/>
+      <c r="F459" s="4"/>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A460" s="3">
+        <v>43833</v>
+      </c>
+      <c r="B460" s="4">
+        <v>3258.84</v>
+      </c>
+      <c r="E460" s="1"/>
+      <c r="F460" s="2"/>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B461" s="2">
+        <v>3262.05</v>
+      </c>
+      <c r="E461" s="3"/>
+      <c r="F461" s="4"/>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A462" s="3">
+        <v>43835</v>
+      </c>
+      <c r="B462" s="4">
+        <v>3262.05</v>
+      </c>
+      <c r="E462" s="1"/>
+      <c r="F462" s="2"/>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>43836</v>
+      </c>
+      <c r="B463" s="2">
+        <v>3262.05</v>
+      </c>
+      <c r="E463" s="3"/>
+      <c r="F463" s="4"/>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A464" s="3">
+        <v>43837</v>
+      </c>
+      <c r="B464" s="4">
+        <v>3262.05</v>
+      </c>
+      <c r="E464" s="1"/>
+      <c r="F464" s="2"/>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B465" s="2">
+        <v>3264.26</v>
+      </c>
+      <c r="E465" s="3"/>
+      <c r="F465" s="4"/>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A466" s="3">
+        <v>43839</v>
+      </c>
+      <c r="B466" s="4">
+        <v>3254.42</v>
+      </c>
+      <c r="E466" s="1"/>
+      <c r="F466" s="2"/>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>43840</v>
+      </c>
+      <c r="B467" s="2">
+        <v>3253.89</v>
+      </c>
+      <c r="E467" s="3"/>
+      <c r="F467" s="4"/>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A468" s="3">
+        <v>43841</v>
+      </c>
+      <c r="B468" s="4">
+        <v>3272.62</v>
+      </c>
+      <c r="E468" s="1"/>
+      <c r="F468" s="2"/>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B469" s="2">
+        <v>3272.62</v>
+      </c>
+      <c r="E469" s="3"/>
+      <c r="F469" s="4"/>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A470" s="3">
+        <v>43843</v>
+      </c>
+      <c r="B470" s="4">
+        <v>3272.62</v>
+      </c>
+      <c r="E470" s="1"/>
+      <c r="F470" s="2"/>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B471" s="2">
+        <v>3288.05</v>
+      </c>
+      <c r="E471" s="3"/>
+      <c r="F471" s="4"/>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A472" s="3">
+        <v>43845</v>
+      </c>
+      <c r="B472" s="4">
+        <v>3278.83</v>
+      </c>
+      <c r="E472" s="1"/>
+      <c r="F472" s="2"/>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B473" s="2">
+        <v>3296.74</v>
+      </c>
+      <c r="E473" s="3"/>
+      <c r="F473" s="4"/>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A474" s="3">
+        <v>43847</v>
+      </c>
+      <c r="B474" s="4">
+        <v>3313.4</v>
+      </c>
+      <c r="E474" s="1"/>
+      <c r="F474" s="2"/>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>43848</v>
+      </c>
+      <c r="B475" s="2">
+        <v>3320.77</v>
+      </c>
+      <c r="E475" s="3"/>
+      <c r="F475" s="4"/>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A476" s="3">
+        <v>43849</v>
+      </c>
+      <c r="B476" s="4">
+        <v>3320.77</v>
+      </c>
+      <c r="E476" s="1"/>
+      <c r="F476" s="2"/>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>43850</v>
+      </c>
+      <c r="B477" s="2">
+        <v>3320.77</v>
+      </c>
+      <c r="E477" s="3"/>
+      <c r="F477" s="4"/>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A478" s="3">
+        <v>43851</v>
+      </c>
+      <c r="B478" s="4">
+        <v>3320.77</v>
+      </c>
+      <c r="E478" s="1"/>
+      <c r="F478" s="2"/>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B479" s="2">
+        <v>3347.91</v>
+      </c>
+      <c r="E479" s="3"/>
+      <c r="F479" s="4"/>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A480" s="3">
+        <v>43853</v>
+      </c>
+      <c r="B480" s="4">
+        <v>3337.77</v>
+      </c>
+      <c r="E480" s="1"/>
+      <c r="F480" s="2"/>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B481" s="2">
+        <v>3353.76</v>
+      </c>
+      <c r="E481" s="3"/>
+      <c r="F481" s="4"/>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A482" s="3">
+        <v>43855</v>
+      </c>
+      <c r="B482" s="4">
+        <v>3366.01</v>
+      </c>
+      <c r="E482" s="1"/>
+      <c r="F482" s="2"/>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B483" s="2">
+        <v>3366.01</v>
+      </c>
+      <c r="E483" s="3"/>
+      <c r="F483" s="4"/>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A484" s="3">
+        <v>43857</v>
+      </c>
+      <c r="B484" s="4">
+        <v>3366.01</v>
+      </c>
+      <c r="E484" s="1"/>
+      <c r="F484" s="2"/>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B485" s="2">
+        <v>3398.4</v>
+      </c>
+      <c r="E485" s="3"/>
+      <c r="F485" s="4"/>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A486" s="3">
+        <v>43859</v>
+      </c>
+      <c r="B486" s="4">
+        <v>3392.6</v>
+      </c>
+      <c r="E486" s="1"/>
+      <c r="F486" s="2"/>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B487" s="2">
+        <v>3395.1</v>
+      </c>
+      <c r="E487" s="3"/>
+      <c r="F487" s="4"/>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A488" s="3">
+        <v>43861</v>
+      </c>
+      <c r="B488" s="4">
+        <v>3411.45</v>
+      </c>
+      <c r="E488" s="1"/>
+      <c r="F488" s="2"/>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B489" s="2">
+        <v>3423.24</v>
+      </c>
+      <c r="E489" s="3"/>
+      <c r="F489" s="4"/>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A490" s="3">
+        <v>43863</v>
+      </c>
+      <c r="B490" s="4">
+        <v>3423.24</v>
+      </c>
+      <c r="E490" s="1"/>
+      <c r="F490" s="2"/>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B491" s="2">
+        <v>3423.24</v>
+      </c>
+      <c r="E491" s="3"/>
+      <c r="F491" s="4"/>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A492" s="3">
+        <v>43865</v>
+      </c>
+      <c r="B492" s="4">
+        <v>3401.56</v>
+      </c>
+      <c r="E492" s="1"/>
+      <c r="F492" s="2"/>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B493" s="2">
+        <v>3368.87</v>
+      </c>
+      <c r="E493" s="3"/>
+      <c r="F493" s="4"/>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A494" s="3">
+        <v>43867</v>
+      </c>
+      <c r="B494" s="4">
+        <v>3355.44</v>
+      </c>
+      <c r="E494" s="1"/>
+      <c r="F494" s="2"/>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B495" s="2">
+        <v>3378.43</v>
+      </c>
+      <c r="E495" s="3"/>
+      <c r="F495" s="4"/>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A496" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B496" s="4">
+        <v>3408.35</v>
+      </c>
+      <c r="E496" s="1"/>
+      <c r="F496" s="2"/>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B497" s="2">
+        <v>3408.35</v>
+      </c>
+      <c r="E497" s="3"/>
+      <c r="F497" s="4"/>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A498" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B498" s="4">
+        <v>3408.35</v>
+      </c>
+      <c r="E498" s="1"/>
+      <c r="F498" s="2"/>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B499" s="2">
+        <v>3440.96</v>
+      </c>
+      <c r="E499" s="3"/>
+      <c r="F499" s="4"/>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A500" s="3">
+        <v>43873</v>
+      </c>
+      <c r="B500" s="4">
+        <v>3432.89</v>
+      </c>
+      <c r="E500" s="1"/>
+      <c r="F500" s="2"/>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B501" s="2">
+        <v>3394.8</v>
+      </c>
+      <c r="E501" s="3"/>
+      <c r="F501" s="4"/>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A502" s="3">
+        <v>43875</v>
+      </c>
+      <c r="B502" s="4">
+        <v>3385.11</v>
+      </c>
+      <c r="E502" s="1"/>
+      <c r="F502" s="2"/>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B503" s="2">
+        <v>3378.29</v>
+      </c>
+      <c r="E503" s="3"/>
+      <c r="F503" s="4"/>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A504" s="3">
+        <v>43877</v>
+      </c>
+      <c r="B504" s="4">
+        <v>3378.29</v>
+      </c>
+      <c r="E504" s="1"/>
+      <c r="F504" s="2"/>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B505" s="2">
+        <v>3378.29</v>
+      </c>
+      <c r="E505" s="3"/>
+      <c r="F505" s="4"/>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A506" s="3">
+        <v>43879</v>
+      </c>
+      <c r="B506" s="4">
+        <v>3378.29</v>
+      </c>
+      <c r="E506" s="1"/>
+      <c r="F506" s="2"/>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B507" s="2">
+        <v>3410.24</v>
+      </c>
+      <c r="E507" s="3"/>
+      <c r="F507" s="4"/>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A508" s="3">
+        <v>43881</v>
+      </c>
+      <c r="B508" s="4">
+        <v>3400.98</v>
+      </c>
+      <c r="E508" s="1"/>
+      <c r="F508" s="2"/>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B509" s="2">
+        <v>3403.5</v>
+      </c>
+      <c r="E509" s="3"/>
+      <c r="F509" s="4"/>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A510" s="3">
+        <v>43883</v>
+      </c>
+      <c r="B510" s="4">
+        <v>3398.05</v>
+      </c>
+      <c r="E510" s="1"/>
+      <c r="F510" s="2"/>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B511" s="2">
+        <v>3398.05</v>
+      </c>
+      <c r="E511" s="3"/>
+      <c r="F511" s="4"/>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A512" s="3">
+        <v>43885</v>
+      </c>
+      <c r="B512" s="4">
+        <v>3398.05</v>
+      </c>
+      <c r="E512" s="1"/>
+      <c r="F512" s="2"/>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B513" s="2">
+        <v>3431.6</v>
+      </c>
+      <c r="E513" s="3"/>
+      <c r="F513" s="4"/>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A514" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B514" s="4">
+        <v>3425.22</v>
+      </c>
+      <c r="E514" s="1"/>
+      <c r="F514" s="2"/>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B515" s="2">
+        <v>3441.88</v>
+      </c>
+      <c r="E515" s="3"/>
+      <c r="F515" s="4"/>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A516" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B516" s="4">
+        <v>3507.11</v>
+      </c>
+      <c r="E516" s="1"/>
+      <c r="F516" s="2"/>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B517" s="2">
+        <v>3539.86</v>
+      </c>
+      <c r="E517" s="3"/>
+      <c r="F517" s="4"/>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A518" s="3">
+        <v>43891</v>
+      </c>
+      <c r="B518" s="4">
+        <v>3539.86</v>
+      </c>
+      <c r="E518" s="1"/>
+      <c r="F518" s="2"/>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B519" s="2">
+        <v>3539.86</v>
+      </c>
+      <c r="E519" s="3"/>
+      <c r="F519" s="4"/>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A520" s="3">
+        <v>43893</v>
+      </c>
+      <c r="B520" s="4">
+        <v>3512.17</v>
+      </c>
+      <c r="E520" s="1"/>
+      <c r="F520" s="2"/>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B521" s="2">
+        <v>3455.56</v>
+      </c>
+      <c r="E521" s="3"/>
+      <c r="F521" s="4"/>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A522" s="3">
+        <v>43895</v>
+      </c>
+      <c r="B522" s="4">
+        <v>3458.45</v>
+      </c>
+      <c r="E522" s="1"/>
+      <c r="F522" s="2"/>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B523" s="2">
+        <v>3522.41</v>
+      </c>
+      <c r="E523" s="3"/>
+      <c r="F523" s="4"/>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A524" s="3">
+        <v>43897</v>
+      </c>
+      <c r="B524" s="4">
+        <v>3584.58</v>
+      </c>
+      <c r="E524" s="1"/>
+      <c r="F524" s="2"/>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B525" s="2">
+        <v>3584.58</v>
+      </c>
+      <c r="E525" s="3"/>
+      <c r="F525" s="4"/>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A526" s="3">
+        <v>43899</v>
+      </c>
+      <c r="B526" s="4">
+        <v>3584.58</v>
+      </c>
+      <c r="E526" s="1"/>
+      <c r="F526" s="2"/>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B527" s="2">
+        <v>3803.6</v>
+      </c>
+      <c r="E527" s="3"/>
+      <c r="F527" s="4"/>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A528" s="3">
+        <v>43901</v>
+      </c>
+      <c r="B528" s="4">
+        <v>3780.39</v>
+      </c>
+      <c r="E528" s="1"/>
+      <c r="F528" s="2"/>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B529" s="2">
+        <v>3835.15</v>
+      </c>
+      <c r="E529" s="3"/>
+      <c r="F529" s="4"/>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A530" s="3">
+        <v>43903</v>
+      </c>
+      <c r="B530" s="4">
+        <v>4034.66</v>
+      </c>
+      <c r="E530" s="1"/>
+      <c r="F530" s="2"/>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B531" s="2">
+        <v>3941.92</v>
+      </c>
+      <c r="E531" s="3"/>
+      <c r="F531" s="4"/>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A532" s="3">
+        <v>43905</v>
+      </c>
+      <c r="B532" s="4">
+        <v>3941.92</v>
+      </c>
+      <c r="E532" s="1"/>
+      <c r="F532" s="2"/>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B533" s="2">
+        <v>3941.92</v>
+      </c>
+      <c r="E533" s="3"/>
+      <c r="F533" s="4"/>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A534" s="3">
+        <v>43907</v>
+      </c>
+      <c r="B534" s="4">
+        <v>4099.93</v>
+      </c>
+      <c r="E534" s="1"/>
+      <c r="F534" s="2"/>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B535" s="2">
+        <v>4044.55</v>
+      </c>
+      <c r="E535" s="3"/>
+      <c r="F535" s="4"/>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A536" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B536" s="4">
+        <v>4128.38</v>
+      </c>
+      <c r="E536" s="1"/>
+      <c r="F536" s="2"/>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B537" s="2">
+        <v>4153.91</v>
+      </c>
+      <c r="E537" s="3"/>
+      <c r="F537" s="4"/>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A538" s="3">
+        <v>43911</v>
+      </c>
+      <c r="B538" s="4">
+        <v>4079.96</v>
+      </c>
+      <c r="E538" s="1"/>
+      <c r="F538" s="2"/>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B539" s="2">
+        <v>4079.96</v>
+      </c>
+      <c r="E539" s="3"/>
+      <c r="F539" s="4"/>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A540" s="3">
+        <v>43913</v>
+      </c>
+      <c r="B540" s="4">
+        <v>4079.96</v>
+      </c>
+      <c r="E540" s="1"/>
+      <c r="F540" s="2"/>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B541" s="2">
+        <v>4079.96</v>
+      </c>
+      <c r="E541" s="3"/>
+      <c r="F541" s="4"/>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A542" s="3">
+        <v>43915</v>
+      </c>
+      <c r="B542" s="4">
+        <v>4104.8999999999996</v>
+      </c>
+      <c r="E542" s="1"/>
+      <c r="F542" s="2"/>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B543" s="2">
+        <v>4086.34</v>
+      </c>
+      <c r="E543" s="3"/>
+      <c r="F543" s="4"/>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A544" s="3">
+        <v>43917</v>
+      </c>
+      <c r="B544" s="4">
+        <v>3995.83</v>
+      </c>
+      <c r="E544" s="1"/>
+      <c r="F544" s="2"/>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B545" s="2">
+        <v>4042.8</v>
+      </c>
+      <c r="E545" s="3"/>
+      <c r="F545" s="4"/>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A546" s="3">
+        <v>43919</v>
+      </c>
+      <c r="B546" s="4">
+        <v>4042.8</v>
+      </c>
+      <c r="E546" s="1"/>
+      <c r="F546" s="2"/>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B547" s="2">
+        <v>4042.8</v>
+      </c>
+      <c r="E547" s="3"/>
+      <c r="F547" s="4"/>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A548" s="3">
+        <v>43921</v>
+      </c>
+      <c r="B548" s="4">
+        <v>4064.81</v>
+      </c>
+      <c r="E548" s="1"/>
+      <c r="F548" s="2"/>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B549" s="2">
+        <v>4054.54</v>
+      </c>
+      <c r="E549" s="3"/>
+      <c r="F549" s="4"/>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A550" s="3">
+        <v>43923</v>
+      </c>
+      <c r="B550" s="4">
+        <v>4081.06</v>
+      </c>
+      <c r="E550" s="1"/>
+      <c r="F550" s="2"/>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B551" s="2">
+        <v>4065.5</v>
+      </c>
+      <c r="E551" s="3"/>
+      <c r="F551" s="4"/>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A552" s="3">
+        <v>43925</v>
+      </c>
+      <c r="B552" s="4">
+        <v>4008.78</v>
+      </c>
+      <c r="E552" s="1"/>
+      <c r="F552" s="2"/>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B553" s="2">
+        <v>4008.78</v>
+      </c>
+      <c r="E553" s="3"/>
+      <c r="F553" s="4"/>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A554" s="3">
+        <v>43927</v>
+      </c>
+      <c r="B554" s="4">
+        <v>4008.78</v>
+      </c>
+      <c r="E554" s="1"/>
+      <c r="F554" s="2"/>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B555" s="2">
+        <v>3978.38</v>
+      </c>
+      <c r="E555" s="3"/>
+      <c r="F555" s="4"/>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A556" s="3">
+        <v>43929</v>
+      </c>
+      <c r="B556" s="4">
+        <v>3910.15</v>
+      </c>
+      <c r="E556" s="1"/>
+      <c r="F556" s="2"/>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B557" s="2">
+        <v>3886.79</v>
+      </c>
+      <c r="E557" s="3"/>
+      <c r="F557" s="4"/>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A558" s="3">
+        <v>43931</v>
+      </c>
+      <c r="B558" s="4">
+        <v>3886.79</v>
+      </c>
+      <c r="E558" s="1"/>
+      <c r="F558" s="2"/>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B559" s="2">
+        <v>3886.79</v>
+      </c>
+      <c r="E559" s="3"/>
+      <c r="F559" s="4"/>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A560" s="3">
+        <v>43933</v>
+      </c>
+      <c r="B560" s="4">
+        <v>3886.79</v>
+      </c>
+      <c r="E560" s="1"/>
+      <c r="F560" s="2"/>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B561" s="2">
+        <v>3886.79</v>
+      </c>
+      <c r="E561" s="3"/>
+      <c r="F561" s="4"/>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A562" s="3">
+        <v>43935</v>
+      </c>
+      <c r="B562" s="4">
+        <v>3870.31</v>
+      </c>
+      <c r="E562" s="1"/>
+      <c r="F562" s="2"/>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B563" s="2">
+        <v>3858.21</v>
+      </c>
+      <c r="E563" s="3"/>
+      <c r="F563" s="4"/>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A564" s="3">
+        <v>43937</v>
+      </c>
+      <c r="B564" s="4">
+        <v>3920.83</v>
+      </c>
+      <c r="E564" s="1"/>
+      <c r="F564" s="2"/>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B565" s="2">
+        <v>3942.92</v>
+      </c>
+      <c r="E565" s="3"/>
+      <c r="F565" s="4"/>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A566" s="3">
+        <v>43939</v>
+      </c>
+      <c r="B566" s="4">
+        <v>3973.06</v>
+      </c>
+      <c r="E566" s="1"/>
+      <c r="F566" s="2"/>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B567" s="2">
+        <v>3973.06</v>
+      </c>
+      <c r="E567" s="3"/>
+      <c r="F567" s="4"/>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A568" s="3">
+        <v>43941</v>
+      </c>
+      <c r="B568" s="4">
+        <v>3973.06</v>
+      </c>
+      <c r="E568" s="1"/>
+      <c r="F568" s="2"/>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B569" s="2">
+        <v>3967.76</v>
+      </c>
+      <c r="E569" s="3"/>
+      <c r="F569" s="4"/>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A570" s="3">
+        <v>43943</v>
+      </c>
+      <c r="B570" s="4">
+        <v>4045.01</v>
+      </c>
+      <c r="E570" s="1"/>
+      <c r="F570" s="2"/>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B571" s="2">
+        <v>4037.95</v>
+      </c>
+      <c r="E571" s="3"/>
+      <c r="F571" s="4"/>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A572" s="3">
+        <v>43945</v>
+      </c>
+      <c r="B572" s="4">
+        <v>4020.94</v>
+      </c>
+      <c r="E572" s="1"/>
+      <c r="F572" s="2"/>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B573" s="2">
+        <v>4039.87</v>
+      </c>
+      <c r="E573" s="3"/>
+      <c r="F573" s="4"/>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A574" s="3">
+        <v>43947</v>
+      </c>
+      <c r="B574" s="4">
+        <v>4039.87</v>
+      </c>
+      <c r="E574" s="1"/>
+      <c r="F574" s="2"/>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B575" s="2">
+        <v>4039.87</v>
+      </c>
+      <c r="E575" s="3"/>
+      <c r="F575" s="4"/>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A576" s="3">
+        <v>43949</v>
+      </c>
+      <c r="B576" s="4">
+        <v>4039.83</v>
+      </c>
+      <c r="E576" s="1"/>
+      <c r="F576" s="2"/>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B577" s="2">
+        <v>4046.04</v>
+      </c>
+      <c r="E577" s="3"/>
+      <c r="F577" s="4"/>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A578" s="3">
+        <v>43951</v>
+      </c>
+      <c r="B578" s="4">
+        <v>3983.29</v>
+      </c>
+      <c r="E578" s="1"/>
+      <c r="F578" s="2"/>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B579" s="2">
+        <v>3932.72</v>
+      </c>
+      <c r="E579" s="3"/>
+      <c r="F579" s="4"/>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A580" s="3">
+        <v>43953</v>
+      </c>
+      <c r="B580" s="4">
+        <v>3932.72</v>
+      </c>
+      <c r="E580" s="1"/>
+      <c r="F580" s="2"/>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B581" s="2">
+        <v>3932.72</v>
+      </c>
+      <c r="E581" s="3"/>
+      <c r="F581" s="4"/>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A582" s="3">
+        <v>43955</v>
+      </c>
+      <c r="B582" s="4">
+        <v>3932.72</v>
+      </c>
+      <c r="E582" s="1"/>
+      <c r="F582" s="2"/>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B583" s="2">
+        <v>3990.1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A584" s="3">
+        <v>43957</v>
+      </c>
+      <c r="B584" s="4">
+        <v>3926.07</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B585" s="2">
+        <v>3961.66</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A586" s="3">
+        <v>43959</v>
+      </c>
+      <c r="B586" s="4">
+        <v>3924.54</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B587" s="2">
+        <v>3882.27</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A588" s="3">
+        <v>43961</v>
+      </c>
+      <c r="B588" s="4">
+        <v>3882.27</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B589" s="2">
+        <v>3882.27</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A590" s="3">
+        <v>43963</v>
+      </c>
+      <c r="B590" s="4">
+        <v>3901.34</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B591" s="2">
+        <v>3880.48</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A592" s="3">
+        <v>43965</v>
+      </c>
+      <c r="B592" s="4">
+        <v>3901.3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B593" s="2">
+        <v>3947.79</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="3">
+        <v>43967</v>
+      </c>
+      <c r="B594" s="4">
+        <v>3926.06</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B595" s="2">
+        <v>3926.06</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="3">
+        <v>43969</v>
+      </c>
+      <c r="B596" s="4">
+        <v>3926.06</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B597" s="2">
+        <v>3851.07</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" s="3">
+        <v>43971</v>
+      </c>
+      <c r="B598" s="4">
+        <v>3824.3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B599" s="2">
+        <v>3804.12</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" s="3">
+        <v>43973</v>
+      </c>
+      <c r="B600" s="4">
+        <v>3774.25</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B601" s="2">
+        <v>3782.66</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" s="3">
+        <v>43975</v>
+      </c>
+      <c r="B602" s="4">
+        <v>3782.66</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B603" s="2">
+        <v>3782.66</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" s="3">
+        <v>43977</v>
+      </c>
+      <c r="B604" s="4">
+        <v>3782.66</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B605" s="2">
+        <v>3725.56</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" s="3">
+        <v>43979</v>
+      </c>
+      <c r="B606" s="4">
+        <v>3743.79</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B607" s="2">
+        <v>3723.42</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" s="3">
+        <v>43981</v>
+      </c>
+      <c r="B608" s="4">
+        <v>3718.82</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B609" s="2">
+        <v>3718.82</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" s="3">
+        <v>43983</v>
+      </c>
+      <c r="B610" s="4">
+        <v>3718.82</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B611" s="2">
+        <v>3716.35</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" s="3">
+        <v>43985</v>
+      </c>
+      <c r="B612" s="4">
+        <v>3651.42</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B613" s="2">
+        <v>3588.89</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" s="3">
+        <v>43987</v>
+      </c>
+      <c r="B614" s="4">
+        <v>3597.47</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B615" s="2">
+        <v>3565.06</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" s="3">
+        <v>43989</v>
+      </c>
+      <c r="B616" s="4">
+        <v>3565.06</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B617" s="2">
+        <v>3565.06</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" s="3">
+        <v>43991</v>
+      </c>
+      <c r="B618" s="4">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B619" s="2">
+        <v>3643.02</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" s="3">
+        <v>43993</v>
+      </c>
+      <c r="B620" s="4">
+        <v>3674.81</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B621" s="2">
+        <v>3746.46</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" s="3">
+        <v>43995</v>
+      </c>
+      <c r="B622" s="4">
+        <v>3758.15</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B623" s="2">
+        <v>3758.15</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" s="3">
+        <v>43997</v>
+      </c>
+      <c r="B624" s="4">
+        <v>3758.15</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B625" s="2">
+        <v>3758.15</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" s="3">
+        <v>43999</v>
+      </c>
+      <c r="B626" s="4">
+        <v>3741.88</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B627" s="2">
+        <v>3749.03</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" s="3">
+        <v>44001</v>
+      </c>
+      <c r="B628" s="4">
+        <v>3760.22</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B629" s="2">
+        <v>3733.27</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" s="3">
+        <v>44003</v>
+      </c>
+      <c r="B630" s="4">
+        <v>3733.27</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B631" s="2">
+        <v>3733.27</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" s="3">
+        <v>44005</v>
+      </c>
+      <c r="B632" s="4">
+        <v>3733.27</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B633" s="2">
+        <v>3706.06</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" s="3">
+        <v>44007</v>
+      </c>
+      <c r="B634" s="4">
+        <v>3722.27</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B635" s="2">
+        <v>3735.93</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" s="3">
+        <v>44009</v>
+      </c>
+      <c r="B636" s="4">
+        <v>3758.91</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B637" s="2">
+        <v>3758.91</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" s="3">
+        <v>44011</v>
+      </c>
+      <c r="B638" s="4">
+        <v>3758.91</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B639" s="2">
+        <v>3758.91</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" s="3">
+        <v>44013</v>
+      </c>
+      <c r="B640" s="4">
+        <v>3756.28</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B641" s="2">
+        <v>3723.67</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" s="3">
+        <v>44015</v>
+      </c>
+      <c r="B642" s="4">
+        <v>3660.18</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B643" s="2">
+        <v>3645.9</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B644" s="4">
+        <v>3645.9</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B645" s="2">
+        <v>3645.9</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B646" s="4">
+        <v>3633.32</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B647" s="2">
+        <v>3631.54</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B648" s="4">
+        <v>3625.61</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B649" s="2">
+        <v>3633.42</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B650" s="4">
+        <v>3615.75</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B651" s="2">
+        <v>3615.75</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B652" s="4">
+        <v>3615.75</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B653" s="2">
+        <v>3617.22</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B654" s="4">
+        <v>3638.22</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B655" s="2">
+        <v>3611.61</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B656" s="4">
+        <v>3627.86</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B657" s="2">
+        <v>3651.93</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B658" s="4">
+        <v>3651.93</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B659" s="2">
+        <v>3651.93</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="3">
+        <v>44033</v>
+      </c>
+      <c r="B660" s="4">
+        <v>3651.93</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B661" s="2">
+        <v>3628.2</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="3">
+        <v>44035</v>
+      </c>
+      <c r="B662" s="4">
+        <v>3627.28</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B663" s="2">
+        <v>3660.15</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="3">
+        <v>44037</v>
+      </c>
+      <c r="B664" s="4">
+        <v>3690.8</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B665" s="2">
+        <v>3690.8</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="3">
+        <v>44039</v>
+      </c>
+      <c r="B666" s="4">
+        <v>3690.8</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B667" s="2">
+        <v>3679.17</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" s="3">
+        <v>44041</v>
+      </c>
+      <c r="B668" s="4">
+        <v>3718.69</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B669" s="2">
+        <v>3716.89</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="3">
+        <v>44043</v>
+      </c>
+      <c r="B670" s="4">
+        <v>3739.49</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B671" s="2">
+        <v>3733.08</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="3">
+        <v>44045</v>
+      </c>
+      <c r="B672" s="4">
+        <v>3733.08</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B673" s="2">
+        <v>3733.08</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="3">
+        <v>44047</v>
+      </c>
+      <c r="B674" s="4">
+        <v>3768.39</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B675" s="2">
+        <v>3792.98</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B676" s="4">
+        <v>3775.95</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B677" s="2">
+        <v>3769.67</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="3">
+        <v>44051</v>
+      </c>
+      <c r="B678" s="4">
+        <v>3769.67</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B679" s="2">
+        <v>3769.67</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" s="3">
+        <v>44053</v>
+      </c>
+      <c r="B680" s="4">
+        <v>3769.67</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B681" s="2">
+        <v>3770.22</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="3">
+        <v>44055</v>
+      </c>
+      <c r="B682" s="4">
+        <v>3749.3</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B683" s="2">
+        <v>3755.61</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" s="3">
+        <v>44057</v>
+      </c>
+      <c r="B684" s="4">
+        <v>3767.05</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B685" s="2">
+        <v>3783.15</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" s="3">
+        <v>44059</v>
+      </c>
+      <c r="B686" s="4">
+        <v>3783.15</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B687" s="2">
+        <v>3783.15</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="3">
+        <v>44061</v>
+      </c>
+      <c r="B688" s="4">
+        <v>3783.15</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B689" s="2">
+        <v>3784.15</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="3">
+        <v>44063</v>
+      </c>
+      <c r="B690" s="4">
+        <v>3766.73</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B691" s="2">
+        <v>3792.13</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="3">
+        <v>44065</v>
+      </c>
+      <c r="B692" s="4">
+        <v>3827.27</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B693" s="2">
+        <v>3827.27</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="3">
+        <v>44067</v>
+      </c>
+      <c r="B694" s="4">
+        <v>3827.27</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B695" s="2">
+        <v>3843.69</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="3">
+        <v>44069</v>
+      </c>
+      <c r="B696" s="4">
+        <v>3867.32</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B697" s="2">
+        <v>3846.64</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="3">
+        <v>44071</v>
+      </c>
+      <c r="B698" s="4">
+        <v>3820.17</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B699" s="2">
+        <v>3760.38</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="3">
+        <v>44073</v>
+      </c>
+      <c r="B700" s="4">
+        <v>3760.38</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B701" s="2">
+        <v>3760.38</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="3">
+        <v>44075</v>
+      </c>
+      <c r="B702" s="4">
+        <v>3745.41</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B703" s="2">
+        <v>3683.28</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="3">
+        <v>44077</v>
+      </c>
+      <c r="B704" s="4">
+        <v>3653.7</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B705" s="2">
+        <v>3653.23</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" s="3">
+        <v>44079</v>
+      </c>
+      <c r="B706" s="4">
+        <v>3702.62</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B707" s="2">
+        <v>3702.62</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" s="3">
+        <v>44081</v>
+      </c>
+      <c r="B708" s="4">
+        <v>3702.62</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B709" s="2">
+        <v>3702.62</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" s="3">
+        <v>44083</v>
+      </c>
+      <c r="B710" s="4">
+        <v>3757.21</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B711" s="2">
+        <v>3717.25</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" s="3">
+        <v>44085</v>
+      </c>
+      <c r="B712" s="4">
+        <v>3700.28</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B713" s="2">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" s="3">
+        <v>44087</v>
+      </c>
+      <c r="B714" s="4">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B715" s="2">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" s="3">
+        <v>44089</v>
+      </c>
+      <c r="B716" s="4">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B717" s="2">
+        <v>3683.49</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" s="3">
+        <v>44091</v>
+      </c>
+      <c r="B718" s="4">
+        <v>3703.86</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B719" s="2">
+        <v>3714.65</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" s="3">
+        <v>44093</v>
+      </c>
+      <c r="B720" s="4">
+        <v>3725.37</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B721" s="2">
+        <v>3725.37</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" s="3">
+        <v>44095</v>
+      </c>
+      <c r="B722" s="4">
+        <v>3725.37</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B723" s="2">
+        <v>3790.54</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" s="3">
+        <v>44097</v>
+      </c>
+      <c r="B724" s="4">
+        <v>3813.3</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B725" s="2">
+        <v>3863.6</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" s="3">
+        <v>44099</v>
+      </c>
+      <c r="B726" s="4">
+        <v>3873.8</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B727" s="2">
+        <v>3867.81</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" s="3">
+        <v>44101</v>
+      </c>
+      <c r="B728" s="4">
+        <v>3867.81</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B729" s="2">
+        <v>3867.81</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" s="3">
+        <v>44103</v>
+      </c>
+      <c r="B730" s="4">
+        <v>3859.9</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B731" s="2">
+        <v>3878.94</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" s="3">
+        <v>44105</v>
+      </c>
+      <c r="B732" s="4">
+        <v>3865.47</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B733" s="2">
+        <v>3842.34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
